--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>139.3505859375</v>
+        <v>136.9314880371094</v>
       </c>
       <c r="H2" t="n">
-        <v>40.00122833251953</v>
+        <v>41.43741607666016</v>
       </c>
       <c r="I2" t="n">
-        <v>885.1612548828125</v>
+        <v>880.2896728515625</v>
       </c>
       <c r="J2" t="n">
-        <v>76.72251892089844</v>
+        <v>79.73872375488281</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>137.1038055419922</v>
+        <v>135.6781005859375</v>
       </c>
       <c r="H3" t="n">
-        <v>41.22719573974609</v>
+        <v>39.90679168701172</v>
       </c>
       <c r="I3" t="n">
-        <v>904.9526977539062</v>
+        <v>905.8970947265625</v>
       </c>
       <c r="J3" t="n">
-        <v>72.89814758300781</v>
+        <v>70.98432159423828</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>138.5013732910156</v>
+        <v>135.6820526123047</v>
       </c>
       <c r="H4" t="n">
-        <v>39.55331039428711</v>
+        <v>42.48473358154297</v>
       </c>
       <c r="I4" t="n">
-        <v>927.4970703125</v>
+        <v>926.7566528320312</v>
       </c>
       <c r="J4" t="n">
-        <v>70.54692840576172</v>
+        <v>71.71501922607422</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>140.8998107910156</v>
+        <v>138.2612762451172</v>
       </c>
       <c r="H5" t="n">
-        <v>40.49940872192383</v>
+        <v>41.08296585083008</v>
       </c>
       <c r="I5" t="n">
-        <v>939.6031494140625</v>
+        <v>939.796875</v>
       </c>
       <c r="J5" t="n">
-        <v>65.90325164794922</v>
+        <v>65.69358062744141</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>147.1429138183594</v>
+        <v>147.64013671875</v>
       </c>
       <c r="H6" t="n">
-        <v>41.92486572265625</v>
+        <v>39.05476379394531</v>
       </c>
       <c r="I6" t="n">
-        <v>961.833251953125</v>
+        <v>955.0505981445312</v>
       </c>
       <c r="J6" t="n">
-        <v>66.11348724365234</v>
+        <v>66.09720611572266</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>144.0826263427734</v>
+        <v>145.0181274414062</v>
       </c>
       <c r="H7" t="n">
-        <v>45.58587265014648</v>
+        <v>44.6689453125</v>
       </c>
       <c r="I7" t="n">
-        <v>836.27734375</v>
+        <v>838.135009765625</v>
       </c>
       <c r="J7" t="n">
-        <v>93.92099761962891</v>
+        <v>95.00536346435547</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>142.6602020263672</v>
+        <v>142.0696258544922</v>
       </c>
       <c r="H8" t="n">
-        <v>41.39856719970703</v>
+        <v>42.80248260498047</v>
       </c>
       <c r="I8" t="n">
-        <v>900.7203979492188</v>
+        <v>902.0515747070312</v>
       </c>
       <c r="J8" t="n">
-        <v>82.87538909912109</v>
+        <v>89.2489013671875</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>139.2842254638672</v>
+        <v>139.4149017333984</v>
       </c>
       <c r="H9" t="n">
-        <v>39.17788314819336</v>
+        <v>41.30233764648438</v>
       </c>
       <c r="I9" t="n">
-        <v>942.178955078125</v>
+        <v>942.108154296875</v>
       </c>
       <c r="J9" t="n">
-        <v>79.31370544433594</v>
+        <v>80.22658538818359</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>138.052001953125</v>
+        <v>136.9474792480469</v>
       </c>
       <c r="H10" t="n">
-        <v>38.81716537475586</v>
+        <v>38.32894897460938</v>
       </c>
       <c r="I10" t="n">
-        <v>973.3887329101562</v>
+        <v>971.458740234375</v>
       </c>
       <c r="J10" t="n">
-        <v>77.44703674316406</v>
+        <v>75.64860534667969</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>139.9606781005859</v>
+        <v>136.8653259277344</v>
       </c>
       <c r="H11" t="n">
-        <v>38.65647888183594</v>
+        <v>37.04575729370117</v>
       </c>
       <c r="I11" t="n">
-        <v>985.0664672851562</v>
+        <v>985.8369750976562</v>
       </c>
       <c r="J11" t="n">
-        <v>74.56267547607422</v>
+        <v>73.52011108398438</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>143.5508575439453</v>
+        <v>141.9704284667969</v>
       </c>
       <c r="H12" t="n">
-        <v>36.10478973388672</v>
+        <v>37.81918716430664</v>
       </c>
       <c r="I12" t="n">
-        <v>999.2904052734375</v>
+        <v>1000.709045410156</v>
       </c>
       <c r="J12" t="n">
-        <v>72.78611755371094</v>
+        <v>71.89969635009766</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>162.1121673583984</v>
+        <v>159.8102416992188</v>
       </c>
       <c r="H13" t="n">
-        <v>43.73745346069336</v>
+        <v>41.70978927612305</v>
       </c>
       <c r="I13" t="n">
-        <v>1001.663757324219</v>
+        <v>998.0729370117188</v>
       </c>
       <c r="J13" t="n">
-        <v>68.81937408447266</v>
+        <v>68.43323516845703</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>130.4522399902344</v>
+        <v>132.3976440429688</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8833122253418</v>
+        <v>48.07028579711914</v>
       </c>
       <c r="I14" t="n">
-        <v>288.8038330078125</v>
+        <v>284.8534240722656</v>
       </c>
       <c r="J14" t="n">
-        <v>102.8654174804688</v>
+        <v>100.4965362548828</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3963012695312</v>
+        <v>132.8504333496094</v>
       </c>
       <c r="H15" t="n">
-        <v>46.82585525512695</v>
+        <v>44.74098587036133</v>
       </c>
       <c r="I15" t="n">
-        <v>538.9304809570312</v>
+        <v>544.0794677734375</v>
       </c>
       <c r="J15" t="n">
-        <v>127.642333984375</v>
+        <v>128.6634674072266</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>133.0430603027344</v>
+        <v>134.5229644775391</v>
       </c>
       <c r="H16" t="n">
-        <v>42.20218658447266</v>
+        <v>42.34130096435547</v>
       </c>
       <c r="I16" t="n">
-        <v>806.6638793945312</v>
+        <v>798.83447265625</v>
       </c>
       <c r="J16" t="n">
-        <v>105.1270370483398</v>
+        <v>107.3712005615234</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>132.9044494628906</v>
+        <v>133.4334259033203</v>
       </c>
       <c r="H17" t="n">
-        <v>39.41681289672852</v>
+        <v>39.02641677856445</v>
       </c>
       <c r="I17" t="n">
-        <v>973.0473022460938</v>
+        <v>968.7679443359375</v>
       </c>
       <c r="J17" t="n">
-        <v>76.32172393798828</v>
+        <v>79.79261779785156</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>133.1978912353516</v>
+        <v>130.9042663574219</v>
       </c>
       <c r="H18" t="n">
-        <v>37.65138244628906</v>
+        <v>37.9080696105957</v>
       </c>
       <c r="I18" t="n">
-        <v>1003.4658203125</v>
+        <v>1007.441223144531</v>
       </c>
       <c r="J18" t="n">
-        <v>76.22702789306641</v>
+        <v>76.79737091064453</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>134.8323364257812</v>
+        <v>134.4577941894531</v>
       </c>
       <c r="H19" t="n">
-        <v>35.76857376098633</v>
+        <v>37.48342895507812</v>
       </c>
       <c r="I19" t="n">
-        <v>1016.335754394531</v>
+        <v>1018.236450195312</v>
       </c>
       <c r="J19" t="n">
-        <v>75.68328857421875</v>
+        <v>76.35356903076172</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>139.0072326660156</v>
+        <v>138.1792755126953</v>
       </c>
       <c r="H20" t="n">
-        <v>36.70186996459961</v>
+        <v>37.26566696166992</v>
       </c>
       <c r="I20" t="n">
-        <v>1016.641540527344</v>
+        <v>1014.4794921875</v>
       </c>
       <c r="J20" t="n">
-        <v>76.87727355957031</v>
+        <v>78.28082275390625</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>171.4144897460938</v>
+        <v>167.0856170654297</v>
       </c>
       <c r="H21" t="n">
-        <v>49.31282043457031</v>
+        <v>45.93874359130859</v>
       </c>
       <c r="I21" t="n">
-        <v>997.5889282226562</v>
+        <v>1001.737731933594</v>
       </c>
       <c r="J21" t="n">
-        <v>84.94891357421875</v>
+        <v>83.11053466796875</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>280.0417175292969</v>
+        <v>280.8153076171875</v>
       </c>
       <c r="H22" t="n">
-        <v>91.47805786132812</v>
+        <v>90.93183135986328</v>
       </c>
       <c r="I22" t="n">
-        <v>883.6643676757812</v>
+        <v>887.925537109375</v>
       </c>
       <c r="J22" t="n">
-        <v>144.3257293701172</v>
+        <v>145.9310607910156</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>121.451545715332</v>
+        <v>122.7145309448242</v>
       </c>
       <c r="H23" t="n">
-        <v>47.26940536499023</v>
+        <v>47.10843658447266</v>
       </c>
       <c r="I23" t="n">
-        <v>118.3446578979492</v>
+        <v>120.7610397338867</v>
       </c>
       <c r="J23" t="n">
-        <v>72.62599945068359</v>
+        <v>73.72866058349609</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1576843261719</v>
+        <v>124.646369934082</v>
       </c>
       <c r="H24" t="n">
-        <v>42.98575210571289</v>
+        <v>43.89579010009766</v>
       </c>
       <c r="I24" t="n">
-        <v>235.5893249511719</v>
+        <v>232.3998107910156</v>
       </c>
       <c r="J24" t="n">
-        <v>97.27082824707031</v>
+        <v>98.91792297363281</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>123.3952865600586</v>
+        <v>126.1696319580078</v>
       </c>
       <c r="H25" t="n">
-        <v>42.12573623657227</v>
+        <v>43.1869010925293</v>
       </c>
       <c r="I25" t="n">
-        <v>395.6316528320312</v>
+        <v>396.2547302246094</v>
       </c>
       <c r="J25" t="n">
-        <v>128.1213684082031</v>
+        <v>130.2289276123047</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>125.5221328735352</v>
+        <v>125.3359756469727</v>
       </c>
       <c r="H26" t="n">
-        <v>41.34726333618164</v>
+        <v>41.23054885864258</v>
       </c>
       <c r="I26" t="n">
-        <v>677.25830078125</v>
+        <v>678.46044921875</v>
       </c>
       <c r="J26" t="n">
-        <v>136.5210723876953</v>
+        <v>138.7274627685547</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>124.9142074584961</v>
+        <v>125.3159790039062</v>
       </c>
       <c r="H27" t="n">
-        <v>38.09671020507812</v>
+        <v>38.41022872924805</v>
       </c>
       <c r="I27" t="n">
-        <v>938.9590454101562</v>
+        <v>940.5931396484375</v>
       </c>
       <c r="J27" t="n">
-        <v>92.25822448730469</v>
+        <v>94.59642028808594</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>126.696418762207</v>
+        <v>126.0529403686523</v>
       </c>
       <c r="H28" t="n">
-        <v>38.67938995361328</v>
+        <v>38.3658332824707</v>
       </c>
       <c r="I28" t="n">
-        <v>1001.96435546875</v>
+        <v>1001.778259277344</v>
       </c>
       <c r="J28" t="n">
-        <v>79.80047607421875</v>
+        <v>80.00482177734375</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>133.4091491699219</v>
+        <v>134.0862426757812</v>
       </c>
       <c r="H29" t="n">
-        <v>37.08571624755859</v>
+        <v>37.05868911743164</v>
       </c>
       <c r="I29" t="n">
-        <v>997.134033203125</v>
+        <v>998.783935546875</v>
       </c>
       <c r="J29" t="n">
-        <v>83.93916320800781</v>
+        <v>85.41020202636719</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>176.5179748535156</v>
+        <v>176.0488128662109</v>
       </c>
       <c r="H30" t="n">
-        <v>51.31757354736328</v>
+        <v>51.27996826171875</v>
       </c>
       <c r="I30" t="n">
-        <v>947.0523681640625</v>
+        <v>948.582275390625</v>
       </c>
       <c r="J30" t="n">
-        <v>124.2406005859375</v>
+        <v>122.9763336181641</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>292.7554931640625</v>
+        <v>294.542724609375</v>
       </c>
       <c r="H31" t="n">
-        <v>85.60067749023438</v>
+        <v>84.84666442871094</v>
       </c>
       <c r="I31" t="n">
-        <v>750.6854858398438</v>
+        <v>755.3328247070312</v>
       </c>
       <c r="J31" t="n">
-        <v>203.3652954101562</v>
+        <v>199.5242919921875</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>115.9515609741211</v>
+        <v>114.5121612548828</v>
       </c>
       <c r="H32" t="n">
-        <v>48.4530029296875</v>
+        <v>48.89204406738281</v>
       </c>
       <c r="I32" t="n">
-        <v>64.56108856201172</v>
+        <v>65.65618133544922</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40617752075195</v>
+        <v>55.68051528930664</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>118.9525146484375</v>
+        <v>114.9782943725586</v>
       </c>
       <c r="H33" t="n">
-        <v>44.47552871704102</v>
+        <v>44.53921508789062</v>
       </c>
       <c r="I33" t="n">
-        <v>112.1867828369141</v>
+        <v>111.436279296875</v>
       </c>
       <c r="J33" t="n">
-        <v>66.09724426269531</v>
+        <v>63.35758972167969</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>119.9034118652344</v>
+        <v>119.8412399291992</v>
       </c>
       <c r="H34" t="n">
-        <v>44.46937942504883</v>
+        <v>41.42475128173828</v>
       </c>
       <c r="I34" t="n">
-        <v>173.771728515625</v>
+        <v>174.2954254150391</v>
       </c>
       <c r="J34" t="n">
-        <v>80.86560821533203</v>
+        <v>84.07331848144531</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>117.3570022583008</v>
+        <v>118.7818374633789</v>
       </c>
       <c r="H35" t="n">
-        <v>40.37506484985352</v>
+        <v>39.358642578125</v>
       </c>
       <c r="I35" t="n">
-        <v>284.5187377929688</v>
+        <v>286.2939758300781</v>
       </c>
       <c r="J35" t="n">
-        <v>116.4602127075195</v>
+        <v>117.5822982788086</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>120.6580505371094</v>
+        <v>120.1196746826172</v>
       </c>
       <c r="H36" t="n">
-        <v>38.93137359619141</v>
+        <v>40.09327697753906</v>
       </c>
       <c r="I36" t="n">
-        <v>505.0460815429688</v>
+        <v>500.9500122070312</v>
       </c>
       <c r="J36" t="n">
-        <v>148.6603393554688</v>
+        <v>150.7979736328125</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>124.4037246704102</v>
+        <v>123.884880065918</v>
       </c>
       <c r="H37" t="n">
-        <v>39.99004745483398</v>
+        <v>39.32749557495117</v>
       </c>
       <c r="I37" t="n">
-        <v>680.018310546875</v>
+        <v>668.419189453125</v>
       </c>
       <c r="J37" t="n">
-        <v>152.8287048339844</v>
+        <v>149.3103179931641</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>133.1593627929688</v>
+        <v>130.5984497070312</v>
       </c>
       <c r="H38" t="n">
-        <v>38.80965423583984</v>
+        <v>40.17355346679688</v>
       </c>
       <c r="I38" t="n">
-        <v>819.53857421875</v>
+        <v>827.4171752929688</v>
       </c>
       <c r="J38" t="n">
-        <v>142.2646179199219</v>
+        <v>132.2769927978516</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7857971191406</v>
+        <v>180.4332580566406</v>
       </c>
       <c r="H39" t="n">
-        <v>55.09423065185547</v>
+        <v>55.69570541381836</v>
       </c>
       <c r="I39" t="n">
-        <v>738.790283203125</v>
+        <v>731.634521484375</v>
       </c>
       <c r="J39" t="n">
-        <v>185.8295440673828</v>
+        <v>183.8659515380859</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>284.9336853027344</v>
+        <v>291.1023559570312</v>
       </c>
       <c r="H40" t="n">
-        <v>79.85015106201172</v>
+        <v>79.20139312744141</v>
       </c>
       <c r="I40" t="n">
-        <v>643.6856689453125</v>
+        <v>637.5648803710938</v>
       </c>
       <c r="J40" t="n">
-        <v>217.1933135986328</v>
+        <v>210.7522277832031</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>111.924674987793</v>
+        <v>110.3175811767578</v>
       </c>
       <c r="H41" t="n">
-        <v>51.41269302368164</v>
+        <v>48.78855514526367</v>
       </c>
       <c r="I41" t="n">
-        <v>52.56606292724609</v>
+        <v>51.39717864990234</v>
       </c>
       <c r="J41" t="n">
-        <v>48.84894561767578</v>
+        <v>49.75224685668945</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>111.0358428955078</v>
+        <v>112.2951431274414</v>
       </c>
       <c r="H42" t="n">
-        <v>45.71590805053711</v>
+        <v>44.33677673339844</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88002777099609</v>
+        <v>73.260498046875</v>
       </c>
       <c r="J42" t="n">
-        <v>49.61029434204102</v>
+        <v>47.59111404418945</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>111.5827484130859</v>
+        <v>113.0421371459961</v>
       </c>
       <c r="H43" t="n">
-        <v>42.72464370727539</v>
+        <v>42.97546768188477</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3175964355469</v>
+        <v>102.8950424194336</v>
       </c>
       <c r="J43" t="n">
-        <v>54.16253662109375</v>
+        <v>51.91688919067383</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>116.8482437133789</v>
+        <v>118.9069671630859</v>
       </c>
       <c r="H44" t="n">
-        <v>43.31364059448242</v>
+        <v>43.44009399414062</v>
       </c>
       <c r="I44" t="n">
-        <v>145.7037963867188</v>
+        <v>143.5875854492188</v>
       </c>
       <c r="J44" t="n">
-        <v>65.31568908691406</v>
+        <v>63.32898712158203</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>118.1360321044922</v>
+        <v>118.8505325317383</v>
       </c>
       <c r="H45" t="n">
-        <v>42.27129745483398</v>
+        <v>42.39065551757812</v>
       </c>
       <c r="I45" t="n">
-        <v>201.2131652832031</v>
+        <v>203.1963653564453</v>
       </c>
       <c r="J45" t="n">
-        <v>89.002197265625</v>
+        <v>91.02252197265625</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>119.307502746582</v>
+        <v>120.69140625</v>
       </c>
       <c r="H46" t="n">
-        <v>41.32825469970703</v>
+        <v>39.93730545043945</v>
       </c>
       <c r="I46" t="n">
-        <v>295.4603576660156</v>
+        <v>296.5614013671875</v>
       </c>
       <c r="J46" t="n">
-        <v>122.4989929199219</v>
+        <v>120.5510482788086</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>130.5572052001953</v>
+        <v>130.9366607666016</v>
       </c>
       <c r="H47" t="n">
-        <v>41.4227180480957</v>
+        <v>39.83976745605469</v>
       </c>
       <c r="I47" t="n">
-        <v>382.5189208984375</v>
+        <v>381.3091430664062</v>
       </c>
       <c r="J47" t="n">
-        <v>135.3326110839844</v>
+        <v>144.4777221679688</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>185.7965393066406</v>
+        <v>184.1661224365234</v>
       </c>
       <c r="H48" t="n">
-        <v>57.28430938720703</v>
+        <v>54.85327911376953</v>
       </c>
       <c r="I48" t="n">
-        <v>490.0293884277344</v>
+        <v>489.7188415527344</v>
       </c>
       <c r="J48" t="n">
-        <v>191.7565612792969</v>
+        <v>189.2405700683594</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>279.4629821777344</v>
+        <v>280.1322631835938</v>
       </c>
       <c r="H49" t="n">
-        <v>74.80540466308594</v>
+        <v>76.78507232666016</v>
       </c>
       <c r="I49" t="n">
-        <v>516.6223754882812</v>
+        <v>517.0289306640625</v>
       </c>
       <c r="J49" t="n">
-        <v>212.9050445556641</v>
+        <v>218.0964813232422</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>110.0374984741211</v>
+        <v>109.8133316040039</v>
       </c>
       <c r="H50" t="n">
-        <v>47.85963439941406</v>
+        <v>47.70486068725586</v>
       </c>
       <c r="I50" t="n">
-        <v>53.082275390625</v>
+        <v>55.11164093017578</v>
       </c>
       <c r="J50" t="n">
-        <v>46.31362152099609</v>
+        <v>48.69890213012695</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>110.9261856079102</v>
+        <v>111.6087265014648</v>
       </c>
       <c r="H51" t="n">
-        <v>46.74269485473633</v>
+        <v>43.48966598510742</v>
       </c>
       <c r="I51" t="n">
-        <v>64.70998382568359</v>
+        <v>67.43775939941406</v>
       </c>
       <c r="J51" t="n">
-        <v>45.57837295532227</v>
+        <v>46.03798294067383</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>113.4324111938477</v>
+        <v>114.7630233764648</v>
       </c>
       <c r="H52" t="n">
-        <v>43.18512344360352</v>
+        <v>44.54301071166992</v>
       </c>
       <c r="I52" t="n">
-        <v>75.94914245605469</v>
+        <v>75.90679931640625</v>
       </c>
       <c r="J52" t="n">
-        <v>45.84175491333008</v>
+        <v>45.0174674987793</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>115.0370407104492</v>
+        <v>116.5284271240234</v>
       </c>
       <c r="H53" t="n">
-        <v>42.90944671630859</v>
+        <v>41.46918106079102</v>
       </c>
       <c r="I53" t="n">
-        <v>91.83045959472656</v>
+        <v>93.93260192871094</v>
       </c>
       <c r="J53" t="n">
-        <v>47.6739501953125</v>
+        <v>48.28305816650391</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>114.8891906738281</v>
+        <v>116.0381774902344</v>
       </c>
       <c r="H54" t="n">
-        <v>42.35199356079102</v>
+        <v>42.27241897583008</v>
       </c>
       <c r="I54" t="n">
-        <v>111.118766784668</v>
+        <v>110.7397766113281</v>
       </c>
       <c r="J54" t="n">
-        <v>56.07454299926758</v>
+        <v>57.37660980224609</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>119.9317855834961</v>
+        <v>119.7442321777344</v>
       </c>
       <c r="H55" t="n">
-        <v>40.3970832824707</v>
+        <v>41.92646789550781</v>
       </c>
       <c r="I55" t="n">
-        <v>132.9892272949219</v>
+        <v>131.0651550292969</v>
       </c>
       <c r="J55" t="n">
-        <v>61.44524002075195</v>
+        <v>58.61671447753906</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>130.4867858886719</v>
+        <v>130.3972930908203</v>
       </c>
       <c r="H56" t="n">
-        <v>41.89007568359375</v>
+        <v>43.10071182250977</v>
       </c>
       <c r="I56" t="n">
-        <v>171.255126953125</v>
+        <v>177.9920196533203</v>
       </c>
       <c r="J56" t="n">
-        <v>75.58994293212891</v>
+        <v>80.74454498291016</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>179.6435394287109</v>
+        <v>177.8102111816406</v>
       </c>
       <c r="H57" t="n">
-        <v>58.33534240722656</v>
+        <v>57.46757507324219</v>
       </c>
       <c r="I57" t="n">
-        <v>297.1757507324219</v>
+        <v>295.9903259277344</v>
       </c>
       <c r="J57" t="n">
-        <v>141.8762359619141</v>
+        <v>140.6812286376953</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>265.6209106445312</v>
+        <v>267.5356750488281</v>
       </c>
       <c r="H58" t="n">
-        <v>73.2119140625</v>
+        <v>71.21316528320312</v>
       </c>
       <c r="I58" t="n">
-        <v>389.71337890625</v>
+        <v>392.2698059082031</v>
       </c>
       <c r="J58" t="n">
-        <v>193.6426086425781</v>
+        <v>192.4920501708984</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>115.0111083984375</v>
+        <v>113.6274642944336</v>
       </c>
       <c r="H59" t="n">
-        <v>43.18347930908203</v>
+        <v>44.15604782104492</v>
       </c>
       <c r="I59" t="n">
-        <v>47.35339736938477</v>
+        <v>47.00929260253906</v>
       </c>
       <c r="J59" t="n">
-        <v>50.28638076782227</v>
+        <v>50.21844863891602</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>115.3522262573242</v>
+        <v>115.6002502441406</v>
       </c>
       <c r="H60" t="n">
-        <v>44.37709426879883</v>
+        <v>43.31810760498047</v>
       </c>
       <c r="I60" t="n">
-        <v>48.64841079711914</v>
+        <v>49.1191291809082</v>
       </c>
       <c r="J60" t="n">
-        <v>50.58183288574219</v>
+        <v>51.47227096557617</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>114.8507919311523</v>
+        <v>116.445182800293</v>
       </c>
       <c r="H61" t="n">
-        <v>42.06219863891602</v>
+        <v>43.97537231445312</v>
       </c>
       <c r="I61" t="n">
-        <v>51.66397094726562</v>
+        <v>52.23442077636719</v>
       </c>
       <c r="J61" t="n">
-        <v>53.70505523681641</v>
+        <v>52.71333694458008</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>118.2155456542969</v>
+        <v>116.5512237548828</v>
       </c>
       <c r="H62" t="n">
-        <v>42.57820129394531</v>
+        <v>41.33658981323242</v>
       </c>
       <c r="I62" t="n">
-        <v>56.05400466918945</v>
+        <v>55.10497283935547</v>
       </c>
       <c r="J62" t="n">
-        <v>57.71347808837891</v>
+        <v>59.89831161499023</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>122.3023300170898</v>
+        <v>120.204833984375</v>
       </c>
       <c r="H63" t="n">
-        <v>41.82011032104492</v>
+        <v>42.09163284301758</v>
       </c>
       <c r="I63" t="n">
-        <v>60.44084548950195</v>
+        <v>58.65509796142578</v>
       </c>
       <c r="J63" t="n">
-        <v>62.2530403137207</v>
+        <v>61.54582977294922</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>135.4466247558594</v>
+        <v>136.4452667236328</v>
       </c>
       <c r="H64" t="n">
-        <v>42.81525421142578</v>
+        <v>41.55785369873047</v>
       </c>
       <c r="I64" t="n">
-        <v>86.57285308837891</v>
+        <v>85.720458984375</v>
       </c>
       <c r="J64" t="n">
-        <v>66.36830902099609</v>
+        <v>68.22909545898438</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>173.0731048583984</v>
+        <v>175.6140289306641</v>
       </c>
       <c r="H65" t="n">
-        <v>54.65761947631836</v>
+        <v>57.75101089477539</v>
       </c>
       <c r="I65" t="n">
-        <v>139.8975524902344</v>
+        <v>140.1094512939453</v>
       </c>
       <c r="J65" t="n">
-        <v>88.27425384521484</v>
+        <v>94.01104736328125</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>120.2215728759766</v>
+        <v>120.7005615234375</v>
       </c>
       <c r="H66" t="n">
-        <v>43.71200942993164</v>
+        <v>41.25809860229492</v>
       </c>
       <c r="I66" t="n">
-        <v>-2.474140882492065</v>
+        <v>-1.514083743095398</v>
       </c>
       <c r="J66" t="n">
-        <v>72.26625061035156</v>
+        <v>68.05702972412109</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>122.0956802368164</v>
+        <v>121.6150894165039</v>
       </c>
       <c r="H67" t="n">
-        <v>43.13645553588867</v>
+        <v>42.26177978515625</v>
       </c>
       <c r="I67" t="n">
-        <v>-7.615149021148682</v>
+        <v>-2.514382600784302</v>
       </c>
       <c r="J67" t="n">
-        <v>74.43916320800781</v>
+        <v>75.27066040039062</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>122.5584259033203</v>
+        <v>119.6244506835938</v>
       </c>
       <c r="H68" t="n">
-        <v>43.66111755371094</v>
+        <v>41.65353012084961</v>
       </c>
       <c r="I68" t="n">
-        <v>-9.697922706604004</v>
+        <v>-5.682862281799316</v>
       </c>
       <c r="J68" t="n">
-        <v>79.58293914794922</v>
+        <v>80.24409484863281</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>126.8982849121094</v>
+        <v>128.6092376708984</v>
       </c>
       <c r="H69" t="n">
-        <v>40.76671600341797</v>
+        <v>42.20006561279297</v>
       </c>
       <c r="I69" t="n">
-        <v>2.61115288734436</v>
+        <v>2.080104112625122</v>
       </c>
       <c r="J69" t="n">
-        <v>80.43378448486328</v>
+        <v>77.82196807861328</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>136.7853546142578</v>
+        <v>136.5820770263672</v>
       </c>
       <c r="H70" t="n">
-        <v>44.12583923339844</v>
+        <v>43.25340270996094</v>
       </c>
       <c r="I70" t="n">
-        <v>27.22425842285156</v>
+        <v>27.79043388366699</v>
       </c>
       <c r="J70" t="n">
-        <v>77.70317077636719</v>
+        <v>74.48834991455078</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>136.9314880371094</v>
+        <v>140.4337768554688</v>
       </c>
       <c r="H2" t="n">
-        <v>41.43741607666016</v>
+        <v>44.8155632019043</v>
       </c>
       <c r="I2" t="n">
-        <v>880.2896728515625</v>
+        <v>903.9964599609375</v>
       </c>
       <c r="J2" t="n">
-        <v>79.73872375488281</v>
+        <v>81.41977691650391</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>135.6781005859375</v>
+        <v>140.1777954101562</v>
       </c>
       <c r="H3" t="n">
-        <v>39.90679168701172</v>
+        <v>46.89720153808594</v>
       </c>
       <c r="I3" t="n">
-        <v>905.8970947265625</v>
+        <v>920.2000122070312</v>
       </c>
       <c r="J3" t="n">
-        <v>70.98432159423828</v>
+        <v>72.98670196533203</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>135.6820526123047</v>
+        <v>141.5009002685547</v>
       </c>
       <c r="H4" t="n">
-        <v>42.48473358154297</v>
+        <v>47.34540557861328</v>
       </c>
       <c r="I4" t="n">
-        <v>926.7566528320312</v>
+        <v>934.6712646484375</v>
       </c>
       <c r="J4" t="n">
-        <v>71.71501922607422</v>
+        <v>68.48825836181641</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>138.2612762451172</v>
+        <v>146.5292053222656</v>
       </c>
       <c r="H5" t="n">
-        <v>41.08296585083008</v>
+        <v>49.37960052490234</v>
       </c>
       <c r="I5" t="n">
-        <v>939.796875</v>
+        <v>948.5606079101562</v>
       </c>
       <c r="J5" t="n">
-        <v>65.69358062744141</v>
+        <v>69.68648529052734</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>147.64013671875</v>
+        <v>153.3621520996094</v>
       </c>
       <c r="H6" t="n">
-        <v>39.05476379394531</v>
+        <v>46.38199996948242</v>
       </c>
       <c r="I6" t="n">
-        <v>955.0505981445312</v>
+        <v>967.824462890625</v>
       </c>
       <c r="J6" t="n">
-        <v>66.09720611572266</v>
+        <v>69.01038360595703</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>145.0181274414062</v>
+        <v>143.2245178222656</v>
       </c>
       <c r="H7" t="n">
-        <v>44.6689453125</v>
+        <v>47.02442169189453</v>
       </c>
       <c r="I7" t="n">
-        <v>838.135009765625</v>
+        <v>823.1516723632812</v>
       </c>
       <c r="J7" t="n">
-        <v>95.00536346435547</v>
+        <v>96.85346221923828</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>142.0696258544922</v>
+        <v>141.2481842041016</v>
       </c>
       <c r="H8" t="n">
-        <v>42.80248260498047</v>
+        <v>44.78645324707031</v>
       </c>
       <c r="I8" t="n">
-        <v>902.0515747070312</v>
+        <v>918.9383544921875</v>
       </c>
       <c r="J8" t="n">
-        <v>89.2489013671875</v>
+        <v>92.12848663330078</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>139.4149017333984</v>
+        <v>138.9769897460938</v>
       </c>
       <c r="H9" t="n">
-        <v>41.30233764648438</v>
+        <v>43.02433395385742</v>
       </c>
       <c r="I9" t="n">
-        <v>942.108154296875</v>
+        <v>965.4429931640625</v>
       </c>
       <c r="J9" t="n">
-        <v>80.22658538818359</v>
+        <v>83.26590728759766</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>136.9474792480469</v>
+        <v>138.1321105957031</v>
       </c>
       <c r="H10" t="n">
-        <v>38.32894897460938</v>
+        <v>45.11286544799805</v>
       </c>
       <c r="I10" t="n">
-        <v>971.458740234375</v>
+        <v>993.566650390625</v>
       </c>
       <c r="J10" t="n">
-        <v>75.64860534667969</v>
+        <v>81.52249908447266</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>136.8653259277344</v>
+        <v>140.7614135742188</v>
       </c>
       <c r="H11" t="n">
-        <v>37.04575729370117</v>
+        <v>45.9034309387207</v>
       </c>
       <c r="I11" t="n">
-        <v>985.8369750976562</v>
+        <v>994.5321655273438</v>
       </c>
       <c r="J11" t="n">
-        <v>73.52011108398438</v>
+        <v>79.30052185058594</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>141.9704284667969</v>
+        <v>147.4641571044922</v>
       </c>
       <c r="H12" t="n">
-        <v>37.81918716430664</v>
+        <v>42.51496505737305</v>
       </c>
       <c r="I12" t="n">
-        <v>1000.709045410156</v>
+        <v>1004.543151855469</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89969635009766</v>
+        <v>75.97963714599609</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>159.8102416992188</v>
+        <v>164.1785888671875</v>
       </c>
       <c r="H13" t="n">
-        <v>41.70978927612305</v>
+        <v>46.78647613525391</v>
       </c>
       <c r="I13" t="n">
-        <v>998.0729370117188</v>
+        <v>1002.294250488281</v>
       </c>
       <c r="J13" t="n">
-        <v>68.43323516845703</v>
+        <v>74.73168182373047</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>132.3976440429688</v>
+        <v>132.0530548095703</v>
       </c>
       <c r="H14" t="n">
-        <v>48.07028579711914</v>
+        <v>50.24272918701172</v>
       </c>
       <c r="I14" t="n">
-        <v>284.8534240722656</v>
+        <v>277.4344482421875</v>
       </c>
       <c r="J14" t="n">
-        <v>100.4965362548828</v>
+        <v>90.73213958740234</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>132.8504333496094</v>
+        <v>134.7451324462891</v>
       </c>
       <c r="H15" t="n">
-        <v>44.74098587036133</v>
+        <v>48.14202117919922</v>
       </c>
       <c r="I15" t="n">
-        <v>544.0794677734375</v>
+        <v>513.9180297851562</v>
       </c>
       <c r="J15" t="n">
-        <v>128.6634674072266</v>
+        <v>111.0645217895508</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>134.5229644775391</v>
+        <v>135.7940368652344</v>
       </c>
       <c r="H16" t="n">
-        <v>42.34130096435547</v>
+        <v>48.03968811035156</v>
       </c>
       <c r="I16" t="n">
-        <v>798.83447265625</v>
+        <v>766.4646606445312</v>
       </c>
       <c r="J16" t="n">
-        <v>107.3712005615234</v>
+        <v>102.7332077026367</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>133.4334259033203</v>
+        <v>132.4488830566406</v>
       </c>
       <c r="H17" t="n">
-        <v>39.02641677856445</v>
+        <v>44.73790740966797</v>
       </c>
       <c r="I17" t="n">
-        <v>968.7679443359375</v>
+        <v>961.4692993164062</v>
       </c>
       <c r="J17" t="n">
-        <v>79.79261779785156</v>
+        <v>79.969970703125</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>130.9042663574219</v>
+        <v>135.0792083740234</v>
       </c>
       <c r="H18" t="n">
-        <v>37.9080696105957</v>
+        <v>43.85541534423828</v>
       </c>
       <c r="I18" t="n">
-        <v>1007.441223144531</v>
+        <v>1015.827209472656</v>
       </c>
       <c r="J18" t="n">
-        <v>76.79737091064453</v>
+        <v>83.65747833251953</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>134.4577941894531</v>
+        <v>135.9297637939453</v>
       </c>
       <c r="H19" t="n">
-        <v>37.48342895507812</v>
+        <v>43.23410797119141</v>
       </c>
       <c r="I19" t="n">
-        <v>1018.236450195312</v>
+        <v>1027.661743164062</v>
       </c>
       <c r="J19" t="n">
-        <v>76.35356903076172</v>
+        <v>84.48590087890625</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>138.1792755126953</v>
+        <v>141.7121429443359</v>
       </c>
       <c r="H20" t="n">
-        <v>37.26566696166992</v>
+        <v>43.47883987426758</v>
       </c>
       <c r="I20" t="n">
-        <v>1014.4794921875</v>
+        <v>1021.64404296875</v>
       </c>
       <c r="J20" t="n">
-        <v>78.28082275390625</v>
+        <v>82.08911895751953</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>167.0856170654297</v>
+        <v>173.6597900390625</v>
       </c>
       <c r="H21" t="n">
-        <v>45.93874359130859</v>
+        <v>49.95473480224609</v>
       </c>
       <c r="I21" t="n">
-        <v>1001.737731933594</v>
+        <v>990.1857299804688</v>
       </c>
       <c r="J21" t="n">
-        <v>83.11053466796875</v>
+        <v>87.48665618896484</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>280.8153076171875</v>
+        <v>301.1493530273438</v>
       </c>
       <c r="H22" t="n">
-        <v>90.93183135986328</v>
+        <v>83.72478485107422</v>
       </c>
       <c r="I22" t="n">
-        <v>887.925537109375</v>
+        <v>885.3355102539062</v>
       </c>
       <c r="J22" t="n">
-        <v>145.9310607910156</v>
+        <v>123.7479476928711</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>122.7145309448242</v>
+        <v>125.5873718261719</v>
       </c>
       <c r="H23" t="n">
-        <v>47.10843658447266</v>
+        <v>49.58195877075195</v>
       </c>
       <c r="I23" t="n">
-        <v>120.7610397338867</v>
+        <v>113.8285903930664</v>
       </c>
       <c r="J23" t="n">
-        <v>73.72866058349609</v>
+        <v>68.34498596191406</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>124.646369934082</v>
+        <v>123.4495086669922</v>
       </c>
       <c r="H24" t="n">
-        <v>43.89579010009766</v>
+        <v>47.70317459106445</v>
       </c>
       <c r="I24" t="n">
-        <v>232.3998107910156</v>
+        <v>223.0901336669922</v>
       </c>
       <c r="J24" t="n">
-        <v>98.91792297363281</v>
+        <v>93.05564117431641</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>126.1696319580078</v>
+        <v>124.8004302978516</v>
       </c>
       <c r="H25" t="n">
-        <v>43.1869010925293</v>
+        <v>45.8900260925293</v>
       </c>
       <c r="I25" t="n">
-        <v>396.2547302246094</v>
+        <v>387.2514953613281</v>
       </c>
       <c r="J25" t="n">
-        <v>130.2289276123047</v>
+        <v>116.2555694580078</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>125.3359756469727</v>
+        <v>125.0178756713867</v>
       </c>
       <c r="H26" t="n">
-        <v>41.23054885864258</v>
+        <v>46.61368560791016</v>
       </c>
       <c r="I26" t="n">
-        <v>678.46044921875</v>
+        <v>651.916259765625</v>
       </c>
       <c r="J26" t="n">
-        <v>138.7274627685547</v>
+        <v>131.9869079589844</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>125.3159790039062</v>
+        <v>124.5695343017578</v>
       </c>
       <c r="H27" t="n">
-        <v>38.41022872924805</v>
+        <v>45.51028823852539</v>
       </c>
       <c r="I27" t="n">
-        <v>940.5931396484375</v>
+        <v>903.8822021484375</v>
       </c>
       <c r="J27" t="n">
-        <v>94.59642028808594</v>
+        <v>94.43656158447266</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>126.0529403686523</v>
+        <v>131.5395355224609</v>
       </c>
       <c r="H28" t="n">
-        <v>38.3658332824707</v>
+        <v>44.87562942504883</v>
       </c>
       <c r="I28" t="n">
-        <v>1001.778259277344</v>
+        <v>985.0980224609375</v>
       </c>
       <c r="J28" t="n">
-        <v>80.00482177734375</v>
+        <v>82.04925537109375</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>134.0862426757812</v>
+        <v>137.6659088134766</v>
       </c>
       <c r="H29" t="n">
-        <v>37.05868911743164</v>
+        <v>44.00935745239258</v>
       </c>
       <c r="I29" t="n">
-        <v>998.783935546875</v>
+        <v>981.2933349609375</v>
       </c>
       <c r="J29" t="n">
-        <v>85.41020202636719</v>
+        <v>89.12875366210938</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0488128662109</v>
+        <v>187.1856689453125</v>
       </c>
       <c r="H30" t="n">
-        <v>51.27996826171875</v>
+        <v>57.07765579223633</v>
       </c>
       <c r="I30" t="n">
-        <v>948.582275390625</v>
+        <v>908.9315795898438</v>
       </c>
       <c r="J30" t="n">
-        <v>122.9763336181641</v>
+        <v>123.6911697387695</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>294.542724609375</v>
+        <v>312.1364135742188</v>
       </c>
       <c r="H31" t="n">
-        <v>84.84666442871094</v>
+        <v>84.74252319335938</v>
       </c>
       <c r="I31" t="n">
-        <v>755.3328247070312</v>
+        <v>700.4774169921875</v>
       </c>
       <c r="J31" t="n">
-        <v>199.5242919921875</v>
+        <v>194.5402679443359</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>114.5121612548828</v>
+        <v>120.797477722168</v>
       </c>
       <c r="H32" t="n">
-        <v>48.89204406738281</v>
+        <v>50.4829216003418</v>
       </c>
       <c r="I32" t="n">
-        <v>65.65618133544922</v>
+        <v>58.86895370483398</v>
       </c>
       <c r="J32" t="n">
-        <v>55.68051528930664</v>
+        <v>55.39313125610352</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>114.9782943725586</v>
+        <v>120.6676788330078</v>
       </c>
       <c r="H33" t="n">
-        <v>44.53921508789062</v>
+        <v>50.03851699829102</v>
       </c>
       <c r="I33" t="n">
-        <v>111.436279296875</v>
+        <v>105.678596496582</v>
       </c>
       <c r="J33" t="n">
-        <v>63.35758972167969</v>
+        <v>62.64768600463867</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>119.8412399291992</v>
+        <v>119.4972381591797</v>
       </c>
       <c r="H34" t="n">
-        <v>41.42475128173828</v>
+        <v>48.11463165283203</v>
       </c>
       <c r="I34" t="n">
-        <v>174.2954254150391</v>
+        <v>166.7590637207031</v>
       </c>
       <c r="J34" t="n">
-        <v>84.07331848144531</v>
+        <v>79.53141021728516</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>118.7818374633789</v>
+        <v>121.6501159667969</v>
       </c>
       <c r="H35" t="n">
-        <v>39.358642578125</v>
+        <v>45.60755920410156</v>
       </c>
       <c r="I35" t="n">
-        <v>286.2939758300781</v>
+        <v>282.5733032226562</v>
       </c>
       <c r="J35" t="n">
-        <v>117.5822982788086</v>
+        <v>117.9352722167969</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>120.1196746826172</v>
+        <v>122.5866165161133</v>
       </c>
       <c r="H36" t="n">
-        <v>40.09327697753906</v>
+        <v>47.39205551147461</v>
       </c>
       <c r="I36" t="n">
-        <v>500.9500122070312</v>
+        <v>493.15234375</v>
       </c>
       <c r="J36" t="n">
-        <v>150.7979736328125</v>
+        <v>153.9612426757812</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>123.884880065918</v>
+        <v>125.2606735229492</v>
       </c>
       <c r="H37" t="n">
-        <v>39.32749557495117</v>
+        <v>47.90544509887695</v>
       </c>
       <c r="I37" t="n">
-        <v>668.419189453125</v>
+        <v>625.1788940429688</v>
       </c>
       <c r="J37" t="n">
-        <v>149.3103179931641</v>
+        <v>153.6627807617188</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>130.5984497070312</v>
+        <v>138.3759613037109</v>
       </c>
       <c r="H38" t="n">
-        <v>40.17355346679688</v>
+        <v>46.87334823608398</v>
       </c>
       <c r="I38" t="n">
-        <v>827.4171752929688</v>
+        <v>757.114501953125</v>
       </c>
       <c r="J38" t="n">
-        <v>132.2769927978516</v>
+        <v>140.7670288085938</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>180.4332580566406</v>
+        <v>193.2151336669922</v>
       </c>
       <c r="H39" t="n">
-        <v>55.69570541381836</v>
+        <v>63.35919952392578</v>
       </c>
       <c r="I39" t="n">
-        <v>731.634521484375</v>
+        <v>635.62744140625</v>
       </c>
       <c r="J39" t="n">
-        <v>183.8659515380859</v>
+        <v>201.631591796875</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>291.1023559570312</v>
+        <v>305.3227233886719</v>
       </c>
       <c r="H40" t="n">
-        <v>79.20139312744141</v>
+        <v>86.74940490722656</v>
       </c>
       <c r="I40" t="n">
-        <v>637.5648803710938</v>
+        <v>556.3366088867188</v>
       </c>
       <c r="J40" t="n">
-        <v>210.7522277832031</v>
+        <v>229.6103057861328</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>110.3175811767578</v>
+        <v>120.0841903686523</v>
       </c>
       <c r="H41" t="n">
-        <v>48.78855514526367</v>
+        <v>53.12403106689453</v>
       </c>
       <c r="I41" t="n">
-        <v>51.39717864990234</v>
+        <v>45.9935417175293</v>
       </c>
       <c r="J41" t="n">
-        <v>49.75224685668945</v>
+        <v>50.37395095825195</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>112.2951431274414</v>
+        <v>116.2494430541992</v>
       </c>
       <c r="H42" t="n">
-        <v>44.33677673339844</v>
+        <v>51.13491439819336</v>
       </c>
       <c r="I42" t="n">
-        <v>73.260498046875</v>
+        <v>73.00837707519531</v>
       </c>
       <c r="J42" t="n">
-        <v>47.59111404418945</v>
+        <v>48.84348678588867</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>113.0421371459961</v>
+        <v>117.626823425293</v>
       </c>
       <c r="H43" t="n">
-        <v>42.97546768188477</v>
+        <v>48.53790664672852</v>
       </c>
       <c r="I43" t="n">
-        <v>102.8950424194336</v>
+        <v>98.18772888183594</v>
       </c>
       <c r="J43" t="n">
-        <v>51.91688919067383</v>
+        <v>56.69242858886719</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>118.9069671630859</v>
+        <v>118.1273803710938</v>
       </c>
       <c r="H44" t="n">
-        <v>43.44009399414062</v>
+        <v>47.82487869262695</v>
       </c>
       <c r="I44" t="n">
-        <v>143.5875854492188</v>
+        <v>144.5776672363281</v>
       </c>
       <c r="J44" t="n">
-        <v>63.32898712158203</v>
+        <v>70.77876281738281</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8505325317383</v>
+        <v>119.9961166381836</v>
       </c>
       <c r="H45" t="n">
-        <v>42.39065551757812</v>
+        <v>47.83224868774414</v>
       </c>
       <c r="I45" t="n">
-        <v>203.1963653564453</v>
+        <v>195.9024200439453</v>
       </c>
       <c r="J45" t="n">
-        <v>91.02252197265625</v>
+        <v>90.66178894042969</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>120.69140625</v>
+        <v>123.1771774291992</v>
       </c>
       <c r="H46" t="n">
-        <v>39.93730545043945</v>
+        <v>47.18045043945312</v>
       </c>
       <c r="I46" t="n">
-        <v>296.5614013671875</v>
+        <v>294.2449645996094</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5510482788086</v>
+        <v>125.2808532714844</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>130.9366607666016</v>
+        <v>133.7044982910156</v>
       </c>
       <c r="H47" t="n">
-        <v>39.83976745605469</v>
+        <v>47.67122268676758</v>
       </c>
       <c r="I47" t="n">
-        <v>381.3091430664062</v>
+        <v>341.6734619140625</v>
       </c>
       <c r="J47" t="n">
-        <v>144.4777221679688</v>
+        <v>130.8233642578125</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>184.1661224365234</v>
+        <v>195.0747833251953</v>
       </c>
       <c r="H48" t="n">
-        <v>54.85327911376953</v>
+        <v>62.36545181274414</v>
       </c>
       <c r="I48" t="n">
-        <v>489.7188415527344</v>
+        <v>363.6493530273438</v>
       </c>
       <c r="J48" t="n">
-        <v>189.2405700683594</v>
+        <v>187.3783111572266</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>280.1322631835938</v>
+        <v>293.7116088867188</v>
       </c>
       <c r="H49" t="n">
-        <v>76.78507232666016</v>
+        <v>82.62898254394531</v>
       </c>
       <c r="I49" t="n">
-        <v>517.0289306640625</v>
+        <v>401.9995422363281</v>
       </c>
       <c r="J49" t="n">
-        <v>218.0964813232422</v>
+        <v>248.6757965087891</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>109.8133316040039</v>
+        <v>115.4373474121094</v>
       </c>
       <c r="H50" t="n">
-        <v>47.70486068725586</v>
+        <v>52.99395751953125</v>
       </c>
       <c r="I50" t="n">
-        <v>55.11164093017578</v>
+        <v>49.79282379150391</v>
       </c>
       <c r="J50" t="n">
-        <v>48.69890213012695</v>
+        <v>47.08173370361328</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>111.6087265014648</v>
+        <v>116.499267578125</v>
       </c>
       <c r="H51" t="n">
-        <v>43.48966598510742</v>
+        <v>52.8466796875</v>
       </c>
       <c r="I51" t="n">
-        <v>67.43775939941406</v>
+        <v>68.16764068603516</v>
       </c>
       <c r="J51" t="n">
-        <v>46.03798294067383</v>
+        <v>45.14754104614258</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>114.7630233764648</v>
+        <v>118.1555633544922</v>
       </c>
       <c r="H52" t="n">
-        <v>44.54301071166992</v>
+        <v>49.72916793823242</v>
       </c>
       <c r="I52" t="n">
-        <v>75.90679931640625</v>
+        <v>78.91293334960938</v>
       </c>
       <c r="J52" t="n">
-        <v>45.0174674987793</v>
+        <v>45.41176986694336</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>116.5284271240234</v>
+        <v>117.5441818237305</v>
       </c>
       <c r="H53" t="n">
-        <v>41.46918106079102</v>
+        <v>48.87583160400391</v>
       </c>
       <c r="I53" t="n">
-        <v>93.93260192871094</v>
+        <v>93.01870727539062</v>
       </c>
       <c r="J53" t="n">
-        <v>48.28305816650391</v>
+        <v>49.23543930053711</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>116.0381774902344</v>
+        <v>120.2695693969727</v>
       </c>
       <c r="H54" t="n">
-        <v>42.27241897583008</v>
+        <v>47.03678894042969</v>
       </c>
       <c r="I54" t="n">
-        <v>110.7397766113281</v>
+        <v>115.2859268188477</v>
       </c>
       <c r="J54" t="n">
-        <v>57.37660980224609</v>
+        <v>59.95736312866211</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>119.7442321777344</v>
+        <v>121.5075759887695</v>
       </c>
       <c r="H55" t="n">
-        <v>41.92646789550781</v>
+        <v>47.03480911254883</v>
       </c>
       <c r="I55" t="n">
-        <v>131.0651550292969</v>
+        <v>137.4719390869141</v>
       </c>
       <c r="J55" t="n">
-        <v>58.61671447753906</v>
+        <v>64.40704345703125</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>130.3972930908203</v>
+        <v>131.7248382568359</v>
       </c>
       <c r="H56" t="n">
-        <v>43.10071182250977</v>
+        <v>46.54506683349609</v>
       </c>
       <c r="I56" t="n">
-        <v>177.9920196533203</v>
+        <v>162.8953857421875</v>
       </c>
       <c r="J56" t="n">
-        <v>80.74454498291016</v>
+        <v>72.70063781738281</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>177.8102111816406</v>
+        <v>185.5143890380859</v>
       </c>
       <c r="H57" t="n">
-        <v>57.46757507324219</v>
+        <v>62.68043899536133</v>
       </c>
       <c r="I57" t="n">
-        <v>295.9903259277344</v>
+        <v>214.6341094970703</v>
       </c>
       <c r="J57" t="n">
-        <v>140.6812286376953</v>
+        <v>144.4868469238281</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>267.5356750488281</v>
+        <v>280.1278991699219</v>
       </c>
       <c r="H58" t="n">
-        <v>71.21316528320312</v>
+        <v>81.24471282958984</v>
       </c>
       <c r="I58" t="n">
-        <v>392.2698059082031</v>
+        <v>271.1669921875</v>
       </c>
       <c r="J58" t="n">
-        <v>192.4920501708984</v>
+        <v>245.3405914306641</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>113.6274642944336</v>
+        <v>118.2409133911133</v>
       </c>
       <c r="H59" t="n">
-        <v>44.15604782104492</v>
+        <v>50.43278884887695</v>
       </c>
       <c r="I59" t="n">
-        <v>47.00929260253906</v>
+        <v>49.80904006958008</v>
       </c>
       <c r="J59" t="n">
-        <v>50.21844863891602</v>
+        <v>49.09215927124023</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>115.6002502441406</v>
+        <v>117.4360961914062</v>
       </c>
       <c r="H60" t="n">
-        <v>43.31810760498047</v>
+        <v>49.99626159667969</v>
       </c>
       <c r="I60" t="n">
-        <v>49.1191291809082</v>
+        <v>54.20027160644531</v>
       </c>
       <c r="J60" t="n">
-        <v>51.47227096557617</v>
+        <v>51.69984436035156</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>116.445182800293</v>
+        <v>120.3518600463867</v>
       </c>
       <c r="H61" t="n">
-        <v>43.97537231445312</v>
+        <v>48.55892181396484</v>
       </c>
       <c r="I61" t="n">
-        <v>52.23442077636719</v>
+        <v>61.49869918823242</v>
       </c>
       <c r="J61" t="n">
-        <v>52.71333694458008</v>
+        <v>52.80622100830078</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>116.5512237548828</v>
+        <v>122.6048202514648</v>
       </c>
       <c r="H62" t="n">
-        <v>41.33658981323242</v>
+        <v>47.0989875793457</v>
       </c>
       <c r="I62" t="n">
-        <v>55.10497283935547</v>
+        <v>61.76126861572266</v>
       </c>
       <c r="J62" t="n">
-        <v>59.89831161499023</v>
+        <v>56.33400344848633</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>120.204833984375</v>
+        <v>124.0732269287109</v>
       </c>
       <c r="H63" t="n">
-        <v>42.09163284301758</v>
+        <v>47.61789321899414</v>
       </c>
       <c r="I63" t="n">
-        <v>58.65509796142578</v>
+        <v>73.85118865966797</v>
       </c>
       <c r="J63" t="n">
-        <v>61.54582977294922</v>
+        <v>60.93665313720703</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>136.4452667236328</v>
+        <v>135.5668640136719</v>
       </c>
       <c r="H64" t="n">
-        <v>41.55785369873047</v>
+        <v>47.24865341186523</v>
       </c>
       <c r="I64" t="n">
-        <v>85.720458984375</v>
+        <v>88.16841125488281</v>
       </c>
       <c r="J64" t="n">
-        <v>68.22909545898438</v>
+        <v>65.72225189208984</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>175.6140289306641</v>
+        <v>179.9897155761719</v>
       </c>
       <c r="H65" t="n">
-        <v>57.75101089477539</v>
+        <v>60.57266235351562</v>
       </c>
       <c r="I65" t="n">
-        <v>140.1094512939453</v>
+        <v>90.13150024414062</v>
       </c>
       <c r="J65" t="n">
-        <v>94.01104736328125</v>
+        <v>90.73552703857422</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>120.7005615234375</v>
+        <v>121.9444885253906</v>
       </c>
       <c r="H66" t="n">
-        <v>41.25809860229492</v>
+        <v>48.17519378662109</v>
       </c>
       <c r="I66" t="n">
-        <v>-1.514083743095398</v>
+        <v>2.471372365951538</v>
       </c>
       <c r="J66" t="n">
-        <v>68.05702972412109</v>
+        <v>66.79584503173828</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>121.6150894165039</v>
+        <v>123.6508865356445</v>
       </c>
       <c r="H67" t="n">
-        <v>42.26177978515625</v>
+        <v>46.86537551879883</v>
       </c>
       <c r="I67" t="n">
-        <v>-2.514382600784302</v>
+        <v>-3.988925695419312</v>
       </c>
       <c r="J67" t="n">
-        <v>75.27066040039062</v>
+        <v>71.88302612304688</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>119.6244506835938</v>
+        <v>125.4392547607422</v>
       </c>
       <c r="H68" t="n">
-        <v>41.65353012084961</v>
+        <v>47.61223983764648</v>
       </c>
       <c r="I68" t="n">
-        <v>-5.682862281799316</v>
+        <v>-0.6080250144004822</v>
       </c>
       <c r="J68" t="n">
-        <v>80.24409484863281</v>
+        <v>70.24141693115234</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>128.6092376708984</v>
+        <v>129.7104644775391</v>
       </c>
       <c r="H69" t="n">
-        <v>42.20006561279297</v>
+        <v>48.92616653442383</v>
       </c>
       <c r="I69" t="n">
-        <v>2.080104112625122</v>
+        <v>4.823006629943848</v>
       </c>
       <c r="J69" t="n">
-        <v>77.82196807861328</v>
+        <v>73.89322662353516</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>136.5820770263672</v>
+        <v>136.98681640625</v>
       </c>
       <c r="H70" t="n">
-        <v>43.25340270996094</v>
+        <v>47.62697601318359</v>
       </c>
       <c r="I70" t="n">
-        <v>27.79043388366699</v>
+        <v>31.2504711151123</v>
       </c>
       <c r="J70" t="n">
-        <v>74.48834991455078</v>
+        <v>73.708740234375</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>H1_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H1_new_pred_KFold_std</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_std</t>
         </is>
@@ -504,17 +509,22 @@
       <c r="F2" t="n">
         <v>10.27148578895017</v>
       </c>
-      <c r="G2" t="n">
-        <v>140.4337768554688</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>44.8155632019043</v>
+        <v>123.409294128418</v>
       </c>
       <c r="I2" t="n">
-        <v>903.9964599609375</v>
+        <v>29.23960113525391</v>
       </c>
       <c r="J2" t="n">
-        <v>81.41977691650391</v>
+        <v>855.9611206054688</v>
+      </c>
+      <c r="K2" t="n">
+        <v>90.63510131835938</v>
       </c>
     </row>
     <row r="3">
@@ -536,17 +546,22 @@
       <c r="F3" t="n">
         <v>10.49540628405087</v>
       </c>
-      <c r="G3" t="n">
-        <v>140.1777954101562</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>46.89720153808594</v>
+        <v>125.8107528686523</v>
       </c>
       <c r="I3" t="n">
-        <v>920.2000122070312</v>
+        <v>28.57997703552246</v>
       </c>
       <c r="J3" t="n">
-        <v>72.98670196533203</v>
+        <v>893.4442749023438</v>
+      </c>
+      <c r="K3" t="n">
+        <v>81.28984069824219</v>
       </c>
     </row>
     <row r="4">
@@ -568,17 +583,22 @@
       <c r="F4" t="n">
         <v>11.11292799977388</v>
       </c>
-      <c r="G4" t="n">
-        <v>141.5009002685547</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>47.34540557861328</v>
+        <v>127.0645217895508</v>
       </c>
       <c r="I4" t="n">
-        <v>934.6712646484375</v>
+        <v>28.31748008728027</v>
       </c>
       <c r="J4" t="n">
-        <v>68.48825836181641</v>
+        <v>917.6873168945312</v>
+      </c>
+      <c r="K4" t="n">
+        <v>72.25794982910156</v>
       </c>
     </row>
     <row r="5">
@@ -600,17 +620,22 @@
       <c r="F5" t="n">
         <v>11.33579528302992</v>
       </c>
-      <c r="G5" t="n">
-        <v>146.5292053222656</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>49.37960052490234</v>
+        <v>129.5104217529297</v>
       </c>
       <c r="I5" t="n">
-        <v>948.5606079101562</v>
+        <v>29.02972412109375</v>
       </c>
       <c r="J5" t="n">
-        <v>69.68648529052734</v>
+        <v>944.1732177734375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>65.47744750976562</v>
       </c>
     </row>
     <row r="6">
@@ -632,17 +657,22 @@
       <c r="F6" t="n">
         <v>11.53221857575777</v>
       </c>
-      <c r="G6" t="n">
-        <v>153.3621520996094</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>46.38199996948242</v>
+        <v>135.16162109375</v>
       </c>
       <c r="I6" t="n">
-        <v>967.824462890625</v>
+        <v>29.56253814697266</v>
       </c>
       <c r="J6" t="n">
-        <v>69.01038360595703</v>
+        <v>959.4031372070312</v>
+      </c>
+      <c r="K6" t="n">
+        <v>67.99655914306641</v>
       </c>
     </row>
     <row r="7">
@@ -664,17 +694,22 @@
       <c r="F7" t="n">
         <v>11.73836346032553</v>
       </c>
-      <c r="G7" t="n">
-        <v>143.2245178222656</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>47.02442169189453</v>
+        <v>114.0689697265625</v>
       </c>
       <c r="I7" t="n">
-        <v>823.1516723632812</v>
+        <v>29.38813972473145</v>
       </c>
       <c r="J7" t="n">
-        <v>96.85346221923828</v>
+        <v>796.1478271484375</v>
+      </c>
+      <c r="K7" t="n">
+        <v>101.1459579467773</v>
       </c>
     </row>
     <row r="8">
@@ -696,17 +731,22 @@
       <c r="F8" t="n">
         <v>12.47588443056982</v>
       </c>
-      <c r="G8" t="n">
-        <v>141.2481842041016</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>44.78645324707031</v>
+        <v>118.357795715332</v>
       </c>
       <c r="I8" t="n">
-        <v>918.9383544921875</v>
+        <v>29.47786331176758</v>
       </c>
       <c r="J8" t="n">
-        <v>92.12848663330078</v>
+        <v>873.5452880859375</v>
+      </c>
+      <c r="K8" t="n">
+        <v>88.23805999755859</v>
       </c>
     </row>
     <row r="9">
@@ -728,17 +768,22 @@
       <c r="F9" t="n">
         <v>13.31360035996819</v>
       </c>
-      <c r="G9" t="n">
-        <v>138.9769897460938</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>43.02433395385742</v>
+        <v>121.8333740234375</v>
       </c>
       <c r="I9" t="n">
-        <v>965.4429931640625</v>
+        <v>27.10936737060547</v>
       </c>
       <c r="J9" t="n">
-        <v>83.26590728759766</v>
+        <v>922.8876342773438</v>
+      </c>
+      <c r="K9" t="n">
+        <v>81.44215393066406</v>
       </c>
     </row>
     <row r="10">
@@ -760,17 +805,22 @@
       <c r="F10" t="n">
         <v>14.04586286313179</v>
       </c>
-      <c r="G10" t="n">
-        <v>138.1321105957031</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>45.11286544799805</v>
+        <v>125.4446716308594</v>
       </c>
       <c r="I10" t="n">
-        <v>993.566650390625</v>
+        <v>28.17069816589355</v>
       </c>
       <c r="J10" t="n">
-        <v>81.52249908447266</v>
+        <v>960.3638305664062</v>
+      </c>
+      <c r="K10" t="n">
+        <v>76.87136840820312</v>
       </c>
     </row>
     <row r="11">
@@ -792,17 +842,22 @@
       <c r="F11" t="n">
         <v>14.78596965177877</v>
       </c>
-      <c r="G11" t="n">
-        <v>140.7614135742188</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>45.9034309387207</v>
+        <v>127.306770324707</v>
       </c>
       <c r="I11" t="n">
-        <v>994.5321655273438</v>
+        <v>26.81845855712891</v>
       </c>
       <c r="J11" t="n">
-        <v>79.30052185058594</v>
+        <v>982.087890625</v>
+      </c>
+      <c r="K11" t="n">
+        <v>71.85530853271484</v>
       </c>
     </row>
     <row r="12">
@@ -824,17 +879,22 @@
       <c r="F12" t="n">
         <v>14.60750023008277</v>
       </c>
-      <c r="G12" t="n">
-        <v>147.4641571044922</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>42.51496505737305</v>
+        <v>131.6490631103516</v>
       </c>
       <c r="I12" t="n">
-        <v>1004.543151855469</v>
+        <v>26.64271354675293</v>
       </c>
       <c r="J12" t="n">
-        <v>75.97963714599609</v>
+        <v>995.7357177734375</v>
+      </c>
+      <c r="K12" t="n">
+        <v>75.47616577148438</v>
       </c>
     </row>
     <row r="13">
@@ -856,17 +916,22 @@
       <c r="F13" t="n">
         <v>13.93632017907879</v>
       </c>
-      <c r="G13" t="n">
-        <v>164.1785888671875</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>46.78647613525391</v>
+        <v>143.4282836914062</v>
       </c>
       <c r="I13" t="n">
-        <v>1002.294250488281</v>
+        <v>29.05993461608887</v>
       </c>
       <c r="J13" t="n">
-        <v>74.73168182373047</v>
+        <v>1006.369689941406</v>
+      </c>
+      <c r="K13" t="n">
+        <v>78.1739501953125</v>
       </c>
     </row>
     <row r="14">
@@ -888,17 +953,22 @@
       <c r="F14" t="n">
         <v>13.2060787967079</v>
       </c>
-      <c r="G14" t="n">
-        <v>132.0530548095703</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>50.24272918701172</v>
+        <v>101.996940612793</v>
       </c>
       <c r="I14" t="n">
-        <v>277.4344482421875</v>
+        <v>30.74523162841797</v>
       </c>
       <c r="J14" t="n">
-        <v>90.73213958740234</v>
+        <v>264.3883361816406</v>
+      </c>
+      <c r="K14" t="n">
+        <v>105.3128814697266</v>
       </c>
     </row>
     <row r="15">
@@ -920,17 +990,22 @@
       <c r="F15" t="n">
         <v>14.43724685121477</v>
       </c>
-      <c r="G15" t="n">
-        <v>134.7451324462891</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>48.14202117919922</v>
+        <v>104.0107269287109</v>
       </c>
       <c r="I15" t="n">
-        <v>513.9180297851562</v>
+        <v>29.6221981048584</v>
       </c>
       <c r="J15" t="n">
-        <v>111.0645217895508</v>
+        <v>507.3450622558594</v>
+      </c>
+      <c r="K15" t="n">
+        <v>117.3954086303711</v>
       </c>
     </row>
     <row r="16">
@@ -952,17 +1027,22 @@
       <c r="F16" t="n">
         <v>15.77509757365795</v>
       </c>
-      <c r="G16" t="n">
-        <v>135.7940368652344</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>48.03968811035156</v>
+        <v>110.0046615600586</v>
       </c>
       <c r="I16" t="n">
-        <v>766.4646606445312</v>
+        <v>29.54232788085938</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7332077026367</v>
+        <v>769.5467529296875</v>
+      </c>
+      <c r="K16" t="n">
+        <v>106.103889465332</v>
       </c>
     </row>
     <row r="17">
@@ -984,17 +1064,22 @@
       <c r="F17" t="n">
         <v>17.01643502058164</v>
       </c>
-      <c r="G17" t="n">
-        <v>132.4488830566406</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>44.73790740966797</v>
+        <v>117.2836837768555</v>
       </c>
       <c r="I17" t="n">
-        <v>961.4692993164062</v>
+        <v>28.25264358520508</v>
       </c>
       <c r="J17" t="n">
-        <v>79.969970703125</v>
+        <v>949.762939453125</v>
+      </c>
+      <c r="K17" t="n">
+        <v>83.60153198242188</v>
       </c>
     </row>
     <row r="18">
@@ -1016,17 +1101,22 @@
       <c r="F18" t="n">
         <v>17.57324774662381</v>
       </c>
-      <c r="G18" t="n">
-        <v>135.0792083740234</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>43.85541534423828</v>
+        <v>121.6323318481445</v>
       </c>
       <c r="I18" t="n">
-        <v>1015.827209472656</v>
+        <v>27.40756988525391</v>
       </c>
       <c r="J18" t="n">
-        <v>83.65747833251953</v>
+        <v>990.3866577148438</v>
+      </c>
+      <c r="K18" t="n">
+        <v>87.80477905273438</v>
       </c>
     </row>
     <row r="19">
@@ -1048,17 +1138,22 @@
       <c r="F19" t="n">
         <v>18.2282289394109</v>
       </c>
-      <c r="G19" t="n">
-        <v>135.9297637939453</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>43.23410797119141</v>
+        <v>126.4356155395508</v>
       </c>
       <c r="I19" t="n">
-        <v>1027.661743164062</v>
+        <v>27.80795288085938</v>
       </c>
       <c r="J19" t="n">
-        <v>84.48590087890625</v>
+        <v>1011.2236328125</v>
+      </c>
+      <c r="K19" t="n">
+        <v>85.17469787597656</v>
       </c>
     </row>
     <row r="20">
@@ -1080,17 +1175,22 @@
       <c r="F20" t="n">
         <v>18.05168677518481</v>
       </c>
-      <c r="G20" t="n">
-        <v>141.7121429443359</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>43.47883987426758</v>
+        <v>130.1874694824219</v>
       </c>
       <c r="I20" t="n">
-        <v>1021.64404296875</v>
+        <v>25.99196815490723</v>
       </c>
       <c r="J20" t="n">
-        <v>82.08911895751953</v>
+        <v>1013.052795410156</v>
+      </c>
+      <c r="K20" t="n">
+        <v>86.33095550537109</v>
       </c>
     </row>
     <row r="21">
@@ -1112,17 +1212,22 @@
       <c r="F21" t="n">
         <v>17.30316829702608</v>
       </c>
-      <c r="G21" t="n">
-        <v>173.6597900390625</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>49.95473480224609</v>
+        <v>141.8462371826172</v>
       </c>
       <c r="I21" t="n">
-        <v>990.1857299804688</v>
+        <v>28.32198715209961</v>
       </c>
       <c r="J21" t="n">
-        <v>87.48665618896484</v>
+        <v>1012.3466796875</v>
+      </c>
+      <c r="K21" t="n">
+        <v>85.79200744628906</v>
       </c>
     </row>
     <row r="22">
@@ -1144,17 +1249,22 @@
       <c r="F22" t="n">
         <v>15.87142913305469</v>
       </c>
-      <c r="G22" t="n">
-        <v>301.1493530273438</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>83.72478485107422</v>
+        <v>194.8292846679688</v>
       </c>
       <c r="I22" t="n">
-        <v>885.3355102539062</v>
+        <v>58.36073684692383</v>
       </c>
       <c r="J22" t="n">
-        <v>123.7479476928711</v>
+        <v>948.4246826171875</v>
+      </c>
+      <c r="K22" t="n">
+        <v>114.9257659912109</v>
       </c>
     </row>
     <row r="23">
@@ -1176,17 +1286,22 @@
       <c r="F23" t="n">
         <v>16.2842163689804</v>
       </c>
-      <c r="G23" t="n">
-        <v>125.5873718261719</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>49.58195877075195</v>
+        <v>101.2916870117188</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8285903930664</v>
+        <v>30.616455078125</v>
       </c>
       <c r="J23" t="n">
-        <v>68.34498596191406</v>
+        <v>115.6903533935547</v>
+      </c>
+      <c r="K23" t="n">
+        <v>80.14181518554688</v>
       </c>
     </row>
     <row r="24">
@@ -1208,17 +1323,22 @@
       <c r="F24" t="n">
         <v>17.99859633271077</v>
       </c>
-      <c r="G24" t="n">
-        <v>123.4495086669922</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>47.70317459106445</v>
+        <v>103.080451965332</v>
       </c>
       <c r="I24" t="n">
-        <v>223.0901336669922</v>
+        <v>29.51469993591309</v>
       </c>
       <c r="J24" t="n">
-        <v>93.05564117431641</v>
+        <v>224.6950073242188</v>
+      </c>
+      <c r="K24" t="n">
+        <v>110.0434646606445</v>
       </c>
     </row>
     <row r="25">
@@ -1240,17 +1360,22 @@
       <c r="F25" t="n">
         <v>19.53665474474453</v>
       </c>
-      <c r="G25" t="n">
-        <v>124.8004302978516</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>45.8900260925293</v>
+        <v>104.6077880859375</v>
       </c>
       <c r="I25" t="n">
-        <v>387.2514953613281</v>
+        <v>28.99544143676758</v>
       </c>
       <c r="J25" t="n">
-        <v>116.2555694580078</v>
+        <v>375.7328491210938</v>
+      </c>
+      <c r="K25" t="n">
+        <v>138.2602081298828</v>
       </c>
     </row>
     <row r="26">
@@ -1272,17 +1397,22 @@
       <c r="F26" t="n">
         <v>21.18080958029204</v>
       </c>
-      <c r="G26" t="n">
-        <v>125.0178756713867</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>46.61368560791016</v>
+        <v>110.9926681518555</v>
       </c>
       <c r="I26" t="n">
-        <v>651.916259765625</v>
+        <v>28.98716735839844</v>
       </c>
       <c r="J26" t="n">
-        <v>131.9869079589844</v>
+        <v>666.0218505859375</v>
+      </c>
+      <c r="K26" t="n">
+        <v>147.7616729736328</v>
       </c>
     </row>
     <row r="27">
@@ -1304,17 +1434,22 @@
       <c r="F27" t="n">
         <v>22.36133238808863</v>
       </c>
-      <c r="G27" t="n">
-        <v>124.5695343017578</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>45.51028823852539</v>
+        <v>118.6446228027344</v>
       </c>
       <c r="I27" t="n">
-        <v>903.8822021484375</v>
+        <v>28.1252326965332</v>
       </c>
       <c r="J27" t="n">
-        <v>94.43656158447266</v>
+        <v>927.8754272460938</v>
+      </c>
+      <c r="K27" t="n">
+        <v>98.22343444824219</v>
       </c>
     </row>
     <row r="28">
@@ -1336,17 +1471,22 @@
       <c r="F28" t="n">
         <v>22.25528267810615</v>
       </c>
-      <c r="G28" t="n">
-        <v>131.5395355224609</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>44.87562942504883</v>
+        <v>123.008544921875</v>
       </c>
       <c r="I28" t="n">
-        <v>985.0980224609375</v>
+        <v>27.08416175842285</v>
       </c>
       <c r="J28" t="n">
-        <v>82.04925537109375</v>
+        <v>998.774658203125</v>
+      </c>
+      <c r="K28" t="n">
+        <v>81.48549652099609</v>
       </c>
     </row>
     <row r="29">
@@ -1368,17 +1508,22 @@
       <c r="F29" t="n">
         <v>22.11853696692908</v>
       </c>
-      <c r="G29" t="n">
-        <v>137.6659088134766</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>44.00935745239258</v>
+        <v>129.9115905761719</v>
       </c>
       <c r="I29" t="n">
-        <v>981.2933349609375</v>
+        <v>27.40399742126465</v>
       </c>
       <c r="J29" t="n">
-        <v>89.12875366210938</v>
+        <v>994.1234130859375</v>
+      </c>
+      <c r="K29" t="n">
+        <v>93.34539031982422</v>
       </c>
     </row>
     <row r="30">
@@ -1400,17 +1545,22 @@
       <c r="F30" t="n">
         <v>21.13587239531939</v>
       </c>
-      <c r="G30" t="n">
-        <v>187.1856689453125</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>57.07765579223633</v>
+        <v>140.0575714111328</v>
       </c>
       <c r="I30" t="n">
-        <v>908.9315795898438</v>
+        <v>28.53249549865723</v>
       </c>
       <c r="J30" t="n">
-        <v>123.6911697387695</v>
+        <v>953.3220825195312</v>
+      </c>
+      <c r="K30" t="n">
+        <v>119.2153167724609</v>
       </c>
     </row>
     <row r="31">
@@ -1432,17 +1582,22 @@
       <c r="F31" t="n">
         <v>19.80061812897557</v>
       </c>
-      <c r="G31" t="n">
-        <v>312.1364135742188</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>84.74252319335938</v>
+        <v>198.4091796875</v>
       </c>
       <c r="I31" t="n">
-        <v>700.4774169921875</v>
+        <v>59.38651275634766</v>
       </c>
       <c r="J31" t="n">
-        <v>194.5402679443359</v>
+        <v>777.557861328125</v>
+      </c>
+      <c r="K31" t="n">
+        <v>186.3058776855469</v>
       </c>
     </row>
     <row r="32">
@@ -1464,17 +1619,22 @@
       <c r="F32" t="n">
         <v>20.55168297688286</v>
       </c>
-      <c r="G32" t="n">
-        <v>120.797477722168</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>50.4829216003418</v>
+        <v>101.250846862793</v>
       </c>
       <c r="I32" t="n">
-        <v>58.86895370483398</v>
+        <v>31.07380867004395</v>
       </c>
       <c r="J32" t="n">
-        <v>55.39313125610352</v>
+        <v>66.89459991455078</v>
+      </c>
+      <c r="K32" t="n">
+        <v>57.5604133605957</v>
       </c>
     </row>
     <row r="33">
@@ -1496,17 +1656,22 @@
       <c r="F33" t="n">
         <v>22.96934284445093</v>
       </c>
-      <c r="G33" t="n">
-        <v>120.6676788330078</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>50.03851699829102</v>
+        <v>101.276611328125</v>
       </c>
       <c r="I33" t="n">
-        <v>105.678596496582</v>
+        <v>30.76004791259766</v>
       </c>
       <c r="J33" t="n">
-        <v>62.64768600463867</v>
+        <v>107.9961166381836</v>
+      </c>
+      <c r="K33" t="n">
+        <v>69.49431610107422</v>
       </c>
     </row>
     <row r="34">
@@ -1528,17 +1693,22 @@
       <c r="F34" t="n">
         <v>24.40915250803127</v>
       </c>
-      <c r="G34" t="n">
-        <v>119.4972381591797</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>48.11463165283203</v>
+        <v>103.5576400756836</v>
       </c>
       <c r="I34" t="n">
-        <v>166.7590637207031</v>
+        <v>29.62797355651855</v>
       </c>
       <c r="J34" t="n">
-        <v>79.53141021728516</v>
+        <v>169.1877136230469</v>
+      </c>
+      <c r="K34" t="n">
+        <v>94.24694061279297</v>
       </c>
     </row>
     <row r="35">
@@ -1560,17 +1730,22 @@
       <c r="F35" t="n">
         <v>26.0811880993595</v>
       </c>
-      <c r="G35" t="n">
-        <v>121.6501159667969</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>45.60755920410156</v>
+        <v>107.9778289794922</v>
       </c>
       <c r="I35" t="n">
-        <v>282.5733032226562</v>
+        <v>29.16014671325684</v>
       </c>
       <c r="J35" t="n">
-        <v>117.9352722167969</v>
+        <v>287.3989562988281</v>
+      </c>
+      <c r="K35" t="n">
+        <v>137.7067108154297</v>
       </c>
     </row>
     <row r="36">
@@ -1592,17 +1767,22 @@
       <c r="F36" t="n">
         <v>26.87614780904968</v>
       </c>
-      <c r="G36" t="n">
-        <v>122.5866165161133</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>47.39205551147461</v>
+        <v>115.2411575317383</v>
       </c>
       <c r="I36" t="n">
-        <v>493.15234375</v>
+        <v>28.71697616577148</v>
       </c>
       <c r="J36" t="n">
-        <v>153.9612426757812</v>
+        <v>502.7344665527344</v>
+      </c>
+      <c r="K36" t="n">
+        <v>166.8379364013672</v>
       </c>
     </row>
     <row r="37">
@@ -1624,17 +1804,22 @@
       <c r="F37" t="n">
         <v>27.16629873490772</v>
       </c>
-      <c r="G37" t="n">
-        <v>125.2606735229492</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>47.90544509887695</v>
+        <v>119.8062133789062</v>
       </c>
       <c r="I37" t="n">
-        <v>625.1788940429688</v>
+        <v>28.14002990722656</v>
       </c>
       <c r="J37" t="n">
-        <v>153.6627807617188</v>
+        <v>656.1565551757812</v>
+      </c>
+      <c r="K37" t="n">
+        <v>156.0449676513672</v>
       </c>
     </row>
     <row r="38">
@@ -1656,17 +1841,22 @@
       <c r="F38" t="n">
         <v>27.25598473560972</v>
       </c>
-      <c r="G38" t="n">
-        <v>138.3759613037109</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>46.87334823608398</v>
+        <v>127.1831665039062</v>
       </c>
       <c r="I38" t="n">
-        <v>757.114501953125</v>
+        <v>26.0690746307373</v>
       </c>
       <c r="J38" t="n">
-        <v>140.7670288085938</v>
+        <v>797.3749389648438</v>
+      </c>
+      <c r="K38" t="n">
+        <v>134.9310607910156</v>
       </c>
     </row>
     <row r="39">
@@ -1688,17 +1878,22 @@
       <c r="F39" t="n">
         <v>26.04628332899345</v>
       </c>
-      <c r="G39" t="n">
-        <v>193.2151336669922</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>63.35919952392578</v>
+        <v>137.5599517822266</v>
       </c>
       <c r="I39" t="n">
-        <v>635.62744140625</v>
+        <v>27.30198860168457</v>
       </c>
       <c r="J39" t="n">
-        <v>201.631591796875</v>
+        <v>720.7653198242188</v>
+      </c>
+      <c r="K39" t="n">
+        <v>185.9078063964844</v>
       </c>
     </row>
     <row r="40">
@@ -1720,17 +1915,22 @@
       <c r="F40" t="n">
         <v>23.96978635149335</v>
       </c>
-      <c r="G40" t="n">
-        <v>305.3227233886719</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>86.74940490722656</v>
+        <v>192.4154968261719</v>
       </c>
       <c r="I40" t="n">
-        <v>556.3366088867188</v>
+        <v>58.39778137207031</v>
       </c>
       <c r="J40" t="n">
-        <v>229.6103057861328</v>
+        <v>644.3056640625</v>
+      </c>
+      <c r="K40" t="n">
+        <v>201.8583374023438</v>
       </c>
     </row>
     <row r="41">
@@ -1752,17 +1952,22 @@
       <c r="F41" t="n">
         <v>25.6116837653232</v>
       </c>
-      <c r="G41" t="n">
-        <v>120.0841903686523</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>53.12403106689453</v>
+        <v>100.5149536132812</v>
       </c>
       <c r="I41" t="n">
-        <v>45.9935417175293</v>
+        <v>29.90667724609375</v>
       </c>
       <c r="J41" t="n">
-        <v>50.37395095825195</v>
+        <v>49.07316207885742</v>
+      </c>
+      <c r="K41" t="n">
+        <v>47.14126586914062</v>
       </c>
     </row>
     <row r="42">
@@ -1784,17 +1989,22 @@
       <c r="F42" t="n">
         <v>28.41067839248494</v>
       </c>
-      <c r="G42" t="n">
-        <v>116.2494430541992</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>51.13491439819336</v>
+        <v>101.2599105834961</v>
       </c>
       <c r="I42" t="n">
-        <v>73.00837707519531</v>
+        <v>30.63177680969238</v>
       </c>
       <c r="J42" t="n">
-        <v>48.84348678588867</v>
+        <v>71.79898071289062</v>
+      </c>
+      <c r="K42" t="n">
+        <v>49.85709762573242</v>
       </c>
     </row>
     <row r="43">
@@ -1816,17 +2026,22 @@
       <c r="F43" t="n">
         <v>30.68040031937237</v>
       </c>
-      <c r="G43" t="n">
-        <v>117.626823425293</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>48.53790664672852</v>
+        <v>104.5649032592773</v>
       </c>
       <c r="I43" t="n">
-        <v>98.18772888183594</v>
+        <v>28.64363098144531</v>
       </c>
       <c r="J43" t="n">
-        <v>56.69242858886719</v>
+        <v>95.43061828613281</v>
+      </c>
+      <c r="K43" t="n">
+        <v>54.80455017089844</v>
       </c>
     </row>
     <row r="44">
@@ -1848,17 +2063,22 @@
       <c r="F44" t="n">
         <v>32.34762367758118</v>
       </c>
-      <c r="G44" t="n">
-        <v>118.1273803710938</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>47.82487869262695</v>
+        <v>108.2320404052734</v>
       </c>
       <c r="I44" t="n">
-        <v>144.5776672363281</v>
+        <v>29.01599502563477</v>
       </c>
       <c r="J44" t="n">
-        <v>70.77876281738281</v>
+        <v>136.3805236816406</v>
+      </c>
+      <c r="K44" t="n">
+        <v>68.89582061767578</v>
       </c>
     </row>
     <row r="45">
@@ -1880,17 +2100,22 @@
       <c r="F45" t="n">
         <v>33.26712421235609</v>
       </c>
-      <c r="G45" t="n">
-        <v>119.9961166381836</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>47.83224868774414</v>
+        <v>112.7704696655273</v>
       </c>
       <c r="I45" t="n">
-        <v>195.9024200439453</v>
+        <v>30.28354454040527</v>
       </c>
       <c r="J45" t="n">
-        <v>90.66178894042969</v>
+        <v>190.9876098632812</v>
+      </c>
+      <c r="K45" t="n">
+        <v>90.23701477050781</v>
       </c>
     </row>
     <row r="46">
@@ -1912,17 +2137,22 @@
       <c r="F46" t="n">
         <v>33.39925272231932</v>
       </c>
-      <c r="G46" t="n">
-        <v>123.1771774291992</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>47.18045043945312</v>
+        <v>120.1632690429688</v>
       </c>
       <c r="I46" t="n">
-        <v>294.2449645996094</v>
+        <v>28.17579078674316</v>
       </c>
       <c r="J46" t="n">
-        <v>125.2808532714844</v>
+        <v>295.8244018554688</v>
+      </c>
+      <c r="K46" t="n">
+        <v>125.2945327758789</v>
       </c>
     </row>
     <row r="47">
@@ -1944,17 +2174,22 @@
       <c r="F47" t="n">
         <v>32.83385481517335</v>
       </c>
-      <c r="G47" t="n">
-        <v>133.7044982910156</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>47.67122268676758</v>
+        <v>126.2430725097656</v>
       </c>
       <c r="I47" t="n">
-        <v>341.6734619140625</v>
+        <v>28.20105743408203</v>
       </c>
       <c r="J47" t="n">
-        <v>130.8233642578125</v>
+        <v>381.5526733398438</v>
+      </c>
+      <c r="K47" t="n">
+        <v>141.0342254638672</v>
       </c>
     </row>
     <row r="48">
@@ -1976,17 +2211,22 @@
       <c r="F48" t="n">
         <v>31.22587875804939</v>
       </c>
-      <c r="G48" t="n">
-        <v>195.0747833251953</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>62.36545181274414</v>
+        <v>137.7687683105469</v>
       </c>
       <c r="I48" t="n">
-        <v>363.6493530273438</v>
+        <v>30.05790328979492</v>
       </c>
       <c r="J48" t="n">
-        <v>187.3783111572266</v>
+        <v>473.6041564941406</v>
+      </c>
+      <c r="K48" t="n">
+        <v>186.4915313720703</v>
       </c>
     </row>
     <row r="49">
@@ -2008,17 +2248,22 @@
       <c r="F49" t="n">
         <v>28.00050845971687</v>
       </c>
-      <c r="G49" t="n">
-        <v>293.7116088867188</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>82.62898254394531</v>
+        <v>191.9148559570312</v>
       </c>
       <c r="I49" t="n">
-        <v>401.9995422363281</v>
+        <v>59.77449798583984</v>
       </c>
       <c r="J49" t="n">
-        <v>248.6757965087891</v>
+        <v>507.856201171875</v>
+      </c>
+      <c r="K49" t="n">
+        <v>205.5247802734375</v>
       </c>
     </row>
     <row r="50">
@@ -2040,17 +2285,22 @@
       <c r="F50" t="n">
         <v>32.75859992753161</v>
       </c>
-      <c r="G50" t="n">
-        <v>115.4373474121094</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>52.99395751953125</v>
+        <v>101.4414367675781</v>
       </c>
       <c r="I50" t="n">
-        <v>49.79282379150391</v>
+        <v>30.26484870910645</v>
       </c>
       <c r="J50" t="n">
-        <v>47.08173370361328</v>
+        <v>47.69018173217773</v>
+      </c>
+      <c r="K50" t="n">
+        <v>44.38843536376953</v>
       </c>
     </row>
     <row r="51">
@@ -2072,17 +2322,22 @@
       <c r="F51" t="n">
         <v>35.60454595063857</v>
       </c>
-      <c r="G51" t="n">
-        <v>116.499267578125</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>52.8466796875</v>
+        <v>103.324462890625</v>
       </c>
       <c r="I51" t="n">
-        <v>68.16764068603516</v>
+        <v>31.27851486206055</v>
       </c>
       <c r="J51" t="n">
-        <v>45.14754104614258</v>
+        <v>61.36287689208984</v>
+      </c>
+      <c r="K51" t="n">
+        <v>44.45831298828125</v>
       </c>
     </row>
     <row r="52">
@@ -2104,17 +2359,22 @@
       <c r="F52" t="n">
         <v>38.13811789539464</v>
       </c>
-      <c r="G52" t="n">
-        <v>118.1555633544922</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>49.72916793823242</v>
+        <v>104.8844680786133</v>
       </c>
       <c r="I52" t="n">
-        <v>78.91293334960938</v>
+        <v>30.10419654846191</v>
       </c>
       <c r="J52" t="n">
-        <v>45.41176986694336</v>
+        <v>72.96288299560547</v>
+      </c>
+      <c r="K52" t="n">
+        <v>46.18621063232422</v>
       </c>
     </row>
     <row r="53">
@@ -2136,17 +2396,22 @@
       <c r="F53" t="n">
         <v>39.1380055059179</v>
       </c>
-      <c r="G53" t="n">
-        <v>117.5441818237305</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>48.87583160400391</v>
+        <v>108.3082962036133</v>
       </c>
       <c r="I53" t="n">
-        <v>93.01870727539062</v>
+        <v>29.60061645507812</v>
       </c>
       <c r="J53" t="n">
-        <v>49.23543930053711</v>
+        <v>87.93914031982422</v>
+      </c>
+      <c r="K53" t="n">
+        <v>52.76554107666016</v>
       </c>
     </row>
     <row r="54">
@@ -2168,17 +2433,22 @@
       <c r="F54" t="n">
         <v>40.17007780104868</v>
       </c>
-      <c r="G54" t="n">
-        <v>120.2695693969727</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>47.03678894042969</v>
+        <v>112.8962249755859</v>
       </c>
       <c r="I54" t="n">
-        <v>115.2859268188477</v>
+        <v>29.88628768920898</v>
       </c>
       <c r="J54" t="n">
-        <v>59.95736312866211</v>
+        <v>105.6441040039062</v>
+      </c>
+      <c r="K54" t="n">
+        <v>54.21399307250977</v>
       </c>
     </row>
     <row r="55">
@@ -2200,17 +2470,22 @@
       <c r="F55" t="n">
         <v>40.31777520333784</v>
       </c>
-      <c r="G55" t="n">
-        <v>121.5075759887695</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>47.03480911254883</v>
+        <v>117.9103775024414</v>
       </c>
       <c r="I55" t="n">
-        <v>137.4719390869141</v>
+        <v>28.80301856994629</v>
       </c>
       <c r="J55" t="n">
-        <v>64.40704345703125</v>
+        <v>130.3159942626953</v>
+      </c>
+      <c r="K55" t="n">
+        <v>61.65507888793945</v>
       </c>
     </row>
     <row r="56">
@@ -2232,17 +2507,22 @@
       <c r="F56" t="n">
         <v>38.89328689858721</v>
       </c>
-      <c r="G56" t="n">
-        <v>131.7248382568359</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>46.54506683349609</v>
+        <v>124.7754440307617</v>
       </c>
       <c r="I56" t="n">
-        <v>162.8953857421875</v>
+        <v>27.61570167541504</v>
       </c>
       <c r="J56" t="n">
-        <v>72.70063781738281</v>
+        <v>174.1962890625</v>
+      </c>
+      <c r="K56" t="n">
+        <v>76.14962005615234</v>
       </c>
     </row>
     <row r="57">
@@ -2264,17 +2544,22 @@
       <c r="F57" t="n">
         <v>36.03490394546852</v>
       </c>
-      <c r="G57" t="n">
-        <v>185.5143890380859</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>62.68043899536133</v>
+        <v>135.265625</v>
       </c>
       <c r="I57" t="n">
-        <v>214.6341094970703</v>
+        <v>28.86658477783203</v>
       </c>
       <c r="J57" t="n">
-        <v>144.4868469238281</v>
+        <v>290.8433532714844</v>
+      </c>
+      <c r="K57" t="n">
+        <v>133.3508758544922</v>
       </c>
     </row>
     <row r="58">
@@ -2296,17 +2581,22 @@
       <c r="F58" t="n">
         <v>33.0417017672229</v>
       </c>
-      <c r="G58" t="n">
-        <v>280.1278991699219</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>81.24471282958984</v>
+        <v>184.500732421875</v>
       </c>
       <c r="I58" t="n">
-        <v>271.1669921875</v>
+        <v>55.31782531738281</v>
       </c>
       <c r="J58" t="n">
-        <v>245.3405914306641</v>
+        <v>373.3320007324219</v>
+      </c>
+      <c r="K58" t="n">
+        <v>176.2330627441406</v>
       </c>
     </row>
     <row r="59">
@@ -2328,17 +2618,22 @@
       <c r="F59" t="n">
         <v>43.98768298598323</v>
       </c>
-      <c r="G59" t="n">
-        <v>118.2409133911133</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>50.43278884887695</v>
+        <v>104.7430191040039</v>
       </c>
       <c r="I59" t="n">
-        <v>49.80904006958008</v>
+        <v>30.91598701477051</v>
       </c>
       <c r="J59" t="n">
-        <v>49.09215927124023</v>
+        <v>44.89031982421875</v>
+      </c>
+      <c r="K59" t="n">
+        <v>45.94210052490234</v>
       </c>
     </row>
     <row r="60">
@@ -2360,17 +2655,22 @@
       <c r="F60" t="n">
         <v>45.7006317110727</v>
       </c>
-      <c r="G60" t="n">
-        <v>117.4360961914062</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>49.99626159667969</v>
+        <v>105.8831100463867</v>
       </c>
       <c r="I60" t="n">
-        <v>54.20027160644531</v>
+        <v>29.51547813415527</v>
       </c>
       <c r="J60" t="n">
-        <v>51.69984436035156</v>
+        <v>48.9559211730957</v>
+      </c>
+      <c r="K60" t="n">
+        <v>48.38554763793945</v>
       </c>
     </row>
     <row r="61">
@@ -2392,17 +2692,22 @@
       <c r="F61" t="n">
         <v>46.67965674781412</v>
       </c>
-      <c r="G61" t="n">
-        <v>120.3518600463867</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>48.55892181396484</v>
+        <v>109.5304718017578</v>
       </c>
       <c r="I61" t="n">
-        <v>61.49869918823242</v>
+        <v>31.21015357971191</v>
       </c>
       <c r="J61" t="n">
-        <v>52.80622100830078</v>
+        <v>53.62157440185547</v>
+      </c>
+      <c r="K61" t="n">
+        <v>50.32479095458984</v>
       </c>
     </row>
     <row r="62">
@@ -2424,17 +2729,22 @@
       <c r="F62" t="n">
         <v>47.53914448671719</v>
       </c>
-      <c r="G62" t="n">
-        <v>122.6048202514648</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H62" t="n">
-        <v>47.0989875793457</v>
+        <v>113.1226806640625</v>
       </c>
       <c r="I62" t="n">
-        <v>61.76126861572266</v>
+        <v>28.83783531188965</v>
       </c>
       <c r="J62" t="n">
-        <v>56.33400344848633</v>
+        <v>58.28656768798828</v>
+      </c>
+      <c r="K62" t="n">
+        <v>54.88595581054688</v>
       </c>
     </row>
     <row r="63">
@@ -2456,17 +2766,22 @@
       <c r="F63" t="n">
         <v>47.07121651777462</v>
       </c>
-      <c r="G63" t="n">
-        <v>124.0732269287109</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>47.61789321899414</v>
+        <v>117.8699645996094</v>
       </c>
       <c r="I63" t="n">
-        <v>73.85118865966797</v>
+        <v>29.04528999328613</v>
       </c>
       <c r="J63" t="n">
-        <v>60.93665313720703</v>
+        <v>66.72260284423828</v>
+      </c>
+      <c r="K63" t="n">
+        <v>60.38225936889648</v>
       </c>
     </row>
     <row r="64">
@@ -2488,17 +2803,22 @@
       <c r="F64" t="n">
         <v>45.67156598130153</v>
       </c>
-      <c r="G64" t="n">
-        <v>135.5668640136719</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H64" t="n">
-        <v>47.24865341186523</v>
+        <v>123.4091033935547</v>
       </c>
       <c r="I64" t="n">
-        <v>88.16841125488281</v>
+        <v>27.76322174072266</v>
       </c>
       <c r="J64" t="n">
-        <v>65.72225189208984</v>
+        <v>98.51547241210938</v>
+      </c>
+      <c r="K64" t="n">
+        <v>62.34376907348633</v>
       </c>
     </row>
     <row r="65">
@@ -2520,17 +2840,22 @@
       <c r="F65" t="n">
         <v>42.51104340916319</v>
       </c>
-      <c r="G65" t="n">
-        <v>179.9897155761719</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>60.57266235351562</v>
+        <v>134.1296234130859</v>
       </c>
       <c r="I65" t="n">
-        <v>90.13150024414062</v>
+        <v>30.06821060180664</v>
       </c>
       <c r="J65" t="n">
-        <v>90.73552703857422</v>
+        <v>139.1532745361328</v>
+      </c>
+      <c r="K65" t="n">
+        <v>78.87149810791016</v>
       </c>
     </row>
     <row r="66">
@@ -2552,17 +2877,22 @@
       <c r="F66" t="n">
         <v>54.37577254606605</v>
       </c>
-      <c r="G66" t="n">
-        <v>121.9444885253906</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H66" t="n">
-        <v>48.17519378662109</v>
+        <v>108.9240112304688</v>
       </c>
       <c r="I66" t="n">
-        <v>2.471372365951538</v>
+        <v>29.67843437194824</v>
       </c>
       <c r="J66" t="n">
-        <v>66.79584503173828</v>
+        <v>1.148530840873718</v>
+      </c>
+      <c r="K66" t="n">
+        <v>63.78940963745117</v>
       </c>
     </row>
     <row r="67">
@@ -2584,17 +2914,22 @@
       <c r="F67" t="n">
         <v>55.07062752917076</v>
       </c>
-      <c r="G67" t="n">
-        <v>123.6508865356445</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>46.86537551879883</v>
+        <v>111.1825942993164</v>
       </c>
       <c r="I67" t="n">
-        <v>-3.988925695419312</v>
+        <v>29.67379570007324</v>
       </c>
       <c r="J67" t="n">
-        <v>71.88302612304688</v>
+        <v>-0.8007735013961792</v>
+      </c>
+      <c r="K67" t="n">
+        <v>65.6300048828125</v>
       </c>
     </row>
     <row r="68">
@@ -2616,17 +2951,22 @@
       <c r="F68" t="n">
         <v>54.82432856758766</v>
       </c>
-      <c r="G68" t="n">
-        <v>125.4392547607422</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>47.61223983764648</v>
+        <v>113.4171447753906</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.6080250144004822</v>
+        <v>29.88855171203613</v>
       </c>
       <c r="J68" t="n">
-        <v>70.24141693115234</v>
+        <v>-0.595655083656311</v>
+      </c>
+      <c r="K68" t="n">
+        <v>67.80263519287109</v>
       </c>
     </row>
     <row r="69">
@@ -2648,17 +2988,22 @@
       <c r="F69" t="n">
         <v>54.18769809434324</v>
       </c>
-      <c r="G69" t="n">
-        <v>129.7104644775391</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H69" t="n">
-        <v>48.92616653442383</v>
+        <v>117.3622283935547</v>
       </c>
       <c r="I69" t="n">
-        <v>4.823006629943848</v>
+        <v>29.31699752807617</v>
       </c>
       <c r="J69" t="n">
-        <v>73.89322662353516</v>
+        <v>11.63108730316162</v>
+      </c>
+      <c r="K69" t="n">
+        <v>69.30110931396484</v>
       </c>
     </row>
     <row r="70">
@@ -2680,17 +3025,22 @@
       <c r="F70" t="n">
         <v>51.347187815424</v>
       </c>
-      <c r="G70" t="n">
-        <v>136.98681640625</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H70" t="n">
-        <v>47.62697601318359</v>
+        <v>124.0541534423828</v>
       </c>
       <c r="I70" t="n">
-        <v>31.2504711151123</v>
+        <v>28.36834335327148</v>
       </c>
       <c r="J70" t="n">
-        <v>73.708740234375</v>
+        <v>40.751220703125</v>
+      </c>
+      <c r="K70" t="n">
+        <v>72.18792724609375</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>123.409294128418</v>
+        <v>125.2060012817383</v>
       </c>
       <c r="I2" t="n">
-        <v>29.23960113525391</v>
+        <v>27.47480392456055</v>
       </c>
       <c r="J2" t="n">
-        <v>855.9611206054688</v>
+        <v>853.8477172851562</v>
       </c>
       <c r="K2" t="n">
-        <v>90.63510131835938</v>
+        <v>91.57253265380859</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>125.8107528686523</v>
+        <v>125.1100006103516</v>
       </c>
       <c r="I3" t="n">
-        <v>28.57997703552246</v>
+        <v>28.53504371643066</v>
       </c>
       <c r="J3" t="n">
-        <v>893.4442749023438</v>
+        <v>889.6102905273438</v>
       </c>
       <c r="K3" t="n">
-        <v>81.28984069824219</v>
+        <v>79.29131317138672</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>127.0645217895508</v>
+        <v>126.2376708984375</v>
       </c>
       <c r="I4" t="n">
-        <v>28.31748008728027</v>
+        <v>28.97025108337402</v>
       </c>
       <c r="J4" t="n">
-        <v>917.6873168945312</v>
+        <v>921.596435546875</v>
       </c>
       <c r="K4" t="n">
-        <v>72.25794982910156</v>
+        <v>71.73925018310547</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>129.5104217529297</v>
+        <v>129.3246459960938</v>
       </c>
       <c r="I5" t="n">
-        <v>29.02972412109375</v>
+        <v>29.13531684875488</v>
       </c>
       <c r="J5" t="n">
-        <v>944.1732177734375</v>
+        <v>943.1770629882812</v>
       </c>
       <c r="K5" t="n">
-        <v>65.47744750976562</v>
+        <v>68.69795227050781</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>135.16162109375</v>
+        <v>134.71533203125</v>
       </c>
       <c r="I6" t="n">
-        <v>29.56253814697266</v>
+        <v>29.91266632080078</v>
       </c>
       <c r="J6" t="n">
-        <v>959.4031372070312</v>
+        <v>956.3193969726562</v>
       </c>
       <c r="K6" t="n">
-        <v>67.99655914306641</v>
+        <v>71.11333465576172</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>114.0689697265625</v>
+        <v>113.3425369262695</v>
       </c>
       <c r="I7" t="n">
-        <v>29.38813972473145</v>
+        <v>28.73888397216797</v>
       </c>
       <c r="J7" t="n">
-        <v>796.1478271484375</v>
+        <v>792.4254150390625</v>
       </c>
       <c r="K7" t="n">
-        <v>101.1459579467773</v>
+        <v>97.62565612792969</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>118.357795715332</v>
+        <v>118.0781631469727</v>
       </c>
       <c r="I8" t="n">
-        <v>29.47786331176758</v>
+        <v>27.51502990722656</v>
       </c>
       <c r="J8" t="n">
-        <v>873.5452880859375</v>
+        <v>880.2312622070312</v>
       </c>
       <c r="K8" t="n">
-        <v>88.23805999755859</v>
+        <v>88.62763977050781</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>121.8333740234375</v>
+        <v>121.1644897460938</v>
       </c>
       <c r="I9" t="n">
-        <v>27.10936737060547</v>
+        <v>27.63337707519531</v>
       </c>
       <c r="J9" t="n">
-        <v>922.8876342773438</v>
+        <v>929.19677734375</v>
       </c>
       <c r="K9" t="n">
-        <v>81.44215393066406</v>
+        <v>79.38241577148438</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>125.4446716308594</v>
+        <v>125.5506744384766</v>
       </c>
       <c r="I10" t="n">
-        <v>28.17069816589355</v>
+        <v>27.66049003601074</v>
       </c>
       <c r="J10" t="n">
-        <v>960.3638305664062</v>
+        <v>961.0286254882812</v>
       </c>
       <c r="K10" t="n">
-        <v>76.87136840820312</v>
+        <v>78.26988220214844</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>127.306770324707</v>
+        <v>128.6074981689453</v>
       </c>
       <c r="I11" t="n">
-        <v>26.81845855712891</v>
+        <v>26.58441162109375</v>
       </c>
       <c r="J11" t="n">
-        <v>982.087890625</v>
+        <v>978.718017578125</v>
       </c>
       <c r="K11" t="n">
-        <v>71.85530853271484</v>
+        <v>72.40653228759766</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>131.6490631103516</v>
+        <v>130.4183807373047</v>
       </c>
       <c r="I12" t="n">
-        <v>26.64271354675293</v>
+        <v>26.4799633026123</v>
       </c>
       <c r="J12" t="n">
-        <v>995.7357177734375</v>
+        <v>995.5322875976562</v>
       </c>
       <c r="K12" t="n">
-        <v>75.47616577148438</v>
+        <v>73.88368225097656</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>143.4282836914062</v>
+        <v>143.5850982666016</v>
       </c>
       <c r="I13" t="n">
-        <v>29.05993461608887</v>
+        <v>28.83211135864258</v>
       </c>
       <c r="J13" t="n">
-        <v>1006.369689941406</v>
+        <v>1010.987609863281</v>
       </c>
       <c r="K13" t="n">
-        <v>78.1739501953125</v>
+        <v>80.349609375</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>101.996940612793</v>
+        <v>102.2301406860352</v>
       </c>
       <c r="I14" t="n">
-        <v>30.74523162841797</v>
+        <v>31.8148365020752</v>
       </c>
       <c r="J14" t="n">
-        <v>264.3883361816406</v>
+        <v>267.9888000488281</v>
       </c>
       <c r="K14" t="n">
-        <v>105.3128814697266</v>
+        <v>105.1376571655273</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>104.0107269287109</v>
+        <v>106.5520553588867</v>
       </c>
       <c r="I15" t="n">
-        <v>29.6221981048584</v>
+        <v>29.82220077514648</v>
       </c>
       <c r="J15" t="n">
-        <v>507.3450622558594</v>
+        <v>506.2026062011719</v>
       </c>
       <c r="K15" t="n">
-        <v>117.3954086303711</v>
+        <v>116.0692825317383</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>110.0046615600586</v>
+        <v>110.6050415039062</v>
       </c>
       <c r="I16" t="n">
-        <v>29.54232788085938</v>
+        <v>28.17995643615723</v>
       </c>
       <c r="J16" t="n">
-        <v>769.5467529296875</v>
+        <v>765.6590576171875</v>
       </c>
       <c r="K16" t="n">
-        <v>106.103889465332</v>
+        <v>108.5746459960938</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>117.2836837768555</v>
+        <v>117.004753112793</v>
       </c>
       <c r="I17" t="n">
-        <v>28.25264358520508</v>
+        <v>26.57398796081543</v>
       </c>
       <c r="J17" t="n">
-        <v>949.762939453125</v>
+        <v>946.5592651367188</v>
       </c>
       <c r="K17" t="n">
-        <v>83.60153198242188</v>
+        <v>84.15037536621094</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>121.6323318481445</v>
+        <v>121.3466567993164</v>
       </c>
       <c r="I18" t="n">
-        <v>27.40756988525391</v>
+        <v>27.92840766906738</v>
       </c>
       <c r="J18" t="n">
-        <v>990.3866577148438</v>
+        <v>997.321044921875</v>
       </c>
       <c r="K18" t="n">
-        <v>87.80477905273438</v>
+        <v>83.85027313232422</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>126.4356155395508</v>
+        <v>126.5218505859375</v>
       </c>
       <c r="I19" t="n">
-        <v>27.80795288085938</v>
+        <v>27.31890869140625</v>
       </c>
       <c r="J19" t="n">
-        <v>1011.2236328125</v>
+        <v>1014.485717773438</v>
       </c>
       <c r="K19" t="n">
-        <v>85.17469787597656</v>
+        <v>87.9888916015625</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>130.1874694824219</v>
+        <v>130.1866302490234</v>
       </c>
       <c r="I20" t="n">
-        <v>25.99196815490723</v>
+        <v>25.00091552734375</v>
       </c>
       <c r="J20" t="n">
-        <v>1013.052795410156</v>
+        <v>1012.148620605469</v>
       </c>
       <c r="K20" t="n">
-        <v>86.33095550537109</v>
+        <v>86.0740966796875</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>141.8462371826172</v>
+        <v>141.7771606445312</v>
       </c>
       <c r="I21" t="n">
-        <v>28.32198715209961</v>
+        <v>28.07855415344238</v>
       </c>
       <c r="J21" t="n">
-        <v>1012.3466796875</v>
+        <v>1010.922302246094</v>
       </c>
       <c r="K21" t="n">
-        <v>85.79200744628906</v>
+        <v>85.52518463134766</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>194.8292846679688</v>
+        <v>194.3316497802734</v>
       </c>
       <c r="I22" t="n">
-        <v>58.36073684692383</v>
+        <v>57.38119506835938</v>
       </c>
       <c r="J22" t="n">
-        <v>948.4246826171875</v>
+        <v>947.560302734375</v>
       </c>
       <c r="K22" t="n">
-        <v>114.9257659912109</v>
+        <v>117.3645629882812</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>101.2916870117188</v>
+        <v>102.1342697143555</v>
       </c>
       <c r="I23" t="n">
-        <v>30.616455078125</v>
+        <v>29.76181602478027</v>
       </c>
       <c r="J23" t="n">
-        <v>115.6903533935547</v>
+        <v>117.9821090698242</v>
       </c>
       <c r="K23" t="n">
-        <v>80.14181518554688</v>
+        <v>80.07748413085938</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>103.080451965332</v>
+        <v>102.321891784668</v>
       </c>
       <c r="I24" t="n">
-        <v>29.51469993591309</v>
+        <v>29.85279083251953</v>
       </c>
       <c r="J24" t="n">
-        <v>224.6950073242188</v>
+        <v>218.2908782958984</v>
       </c>
       <c r="K24" t="n">
-        <v>110.0434646606445</v>
+        <v>108.7871017456055</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>104.6077880859375</v>
+        <v>106.2844696044922</v>
       </c>
       <c r="I25" t="n">
-        <v>28.99544143676758</v>
+        <v>29.52703285217285</v>
       </c>
       <c r="J25" t="n">
-        <v>375.7328491210938</v>
+        <v>379.2045593261719</v>
       </c>
       <c r="K25" t="n">
-        <v>138.2602081298828</v>
+        <v>143.8904876708984</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>110.9926681518555</v>
+        <v>110.7550888061523</v>
       </c>
       <c r="I26" t="n">
-        <v>28.98716735839844</v>
+        <v>28.81953811645508</v>
       </c>
       <c r="J26" t="n">
-        <v>666.0218505859375</v>
+        <v>658.5850830078125</v>
       </c>
       <c r="K26" t="n">
-        <v>147.7616729736328</v>
+        <v>144.1053924560547</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>118.6446228027344</v>
+        <v>118.4765396118164</v>
       </c>
       <c r="I27" t="n">
-        <v>28.1252326965332</v>
+        <v>27.57291412353516</v>
       </c>
       <c r="J27" t="n">
-        <v>927.8754272460938</v>
+        <v>923.0286254882812</v>
       </c>
       <c r="K27" t="n">
-        <v>98.22343444824219</v>
+        <v>95.56143951416016</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>123.008544921875</v>
+        <v>123.9149856567383</v>
       </c>
       <c r="I28" t="n">
-        <v>27.08416175842285</v>
+        <v>25.55333137512207</v>
       </c>
       <c r="J28" t="n">
-        <v>998.774658203125</v>
+        <v>997.7427368164062</v>
       </c>
       <c r="K28" t="n">
-        <v>81.48549652099609</v>
+        <v>80.61041259765625</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>129.9115905761719</v>
+        <v>129.9456787109375</v>
       </c>
       <c r="I29" t="n">
-        <v>27.40399742126465</v>
+        <v>27.35428428649902</v>
       </c>
       <c r="J29" t="n">
-        <v>994.1234130859375</v>
+        <v>992.5066528320312</v>
       </c>
       <c r="K29" t="n">
-        <v>93.34539031982422</v>
+        <v>90.25984191894531</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>140.0575714111328</v>
+        <v>140.0434265136719</v>
       </c>
       <c r="I30" t="n">
-        <v>28.53249549865723</v>
+        <v>27.78696441650391</v>
       </c>
       <c r="J30" t="n">
-        <v>953.3220825195312</v>
+        <v>953.050537109375</v>
       </c>
       <c r="K30" t="n">
-        <v>119.2153167724609</v>
+        <v>120.4318313598633</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>198.4091796875</v>
+        <v>196.7621154785156</v>
       </c>
       <c r="I31" t="n">
-        <v>59.38651275634766</v>
+        <v>54.74784088134766</v>
       </c>
       <c r="J31" t="n">
-        <v>777.557861328125</v>
+        <v>775.392333984375</v>
       </c>
       <c r="K31" t="n">
-        <v>186.3058776855469</v>
+        <v>188.5469665527344</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>101.250846862793</v>
+        <v>100.100944519043</v>
       </c>
       <c r="I32" t="n">
-        <v>31.07380867004395</v>
+        <v>30.79413223266602</v>
       </c>
       <c r="J32" t="n">
-        <v>66.89459991455078</v>
+        <v>66.50508880615234</v>
       </c>
       <c r="K32" t="n">
-        <v>57.5604133605957</v>
+        <v>58.75234603881836</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>101.276611328125</v>
+        <v>102.583740234375</v>
       </c>
       <c r="I33" t="n">
-        <v>30.76004791259766</v>
+        <v>29.53833770751953</v>
       </c>
       <c r="J33" t="n">
-        <v>107.9961166381836</v>
+        <v>110.1132278442383</v>
       </c>
       <c r="K33" t="n">
-        <v>69.49431610107422</v>
+        <v>66.71322631835938</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>103.5576400756836</v>
+        <v>104.4314651489258</v>
       </c>
       <c r="I34" t="n">
-        <v>29.62797355651855</v>
+        <v>29.75266265869141</v>
       </c>
       <c r="J34" t="n">
-        <v>169.1877136230469</v>
+        <v>171.0086517333984</v>
       </c>
       <c r="K34" t="n">
-        <v>94.24694061279297</v>
+        <v>95.9639892578125</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>107.9778289794922</v>
+        <v>107.1216583251953</v>
       </c>
       <c r="I35" t="n">
-        <v>29.16014671325684</v>
+        <v>29.18144607543945</v>
       </c>
       <c r="J35" t="n">
-        <v>287.3989562988281</v>
+        <v>285.1458129882812</v>
       </c>
       <c r="K35" t="n">
-        <v>137.7067108154297</v>
+        <v>138.9130554199219</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>115.2411575317383</v>
+        <v>114.4506530761719</v>
       </c>
       <c r="I36" t="n">
-        <v>28.71697616577148</v>
+        <v>28.01054382324219</v>
       </c>
       <c r="J36" t="n">
-        <v>502.7344665527344</v>
+        <v>504.1121215820312</v>
       </c>
       <c r="K36" t="n">
-        <v>166.8379364013672</v>
+        <v>167.1506042480469</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>119.8062133789062</v>
+        <v>120.0961990356445</v>
       </c>
       <c r="I37" t="n">
-        <v>28.14002990722656</v>
+        <v>28.10057258605957</v>
       </c>
       <c r="J37" t="n">
-        <v>656.1565551757812</v>
+        <v>652.5911865234375</v>
       </c>
       <c r="K37" t="n">
-        <v>156.0449676513672</v>
+        <v>149.9516906738281</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>127.1831665039062</v>
+        <v>127.4362869262695</v>
       </c>
       <c r="I38" t="n">
-        <v>26.0690746307373</v>
+        <v>26.78352165222168</v>
       </c>
       <c r="J38" t="n">
-        <v>797.3749389648438</v>
+        <v>801.9838256835938</v>
       </c>
       <c r="K38" t="n">
-        <v>134.9310607910156</v>
+        <v>139.0571136474609</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>137.5599517822266</v>
+        <v>137.0718688964844</v>
       </c>
       <c r="I39" t="n">
-        <v>27.30198860168457</v>
+        <v>28.20591926574707</v>
       </c>
       <c r="J39" t="n">
-        <v>720.7653198242188</v>
+        <v>716.8202514648438</v>
       </c>
       <c r="K39" t="n">
-        <v>185.9078063964844</v>
+        <v>191.6384582519531</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>192.4154968261719</v>
+        <v>193.6141052246094</v>
       </c>
       <c r="I40" t="n">
-        <v>58.39778137207031</v>
+        <v>58.99531173706055</v>
       </c>
       <c r="J40" t="n">
-        <v>644.3056640625</v>
+        <v>645.6671142578125</v>
       </c>
       <c r="K40" t="n">
-        <v>201.8583374023438</v>
+        <v>205.2545623779297</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>100.5149536132812</v>
+        <v>101.2168655395508</v>
       </c>
       <c r="I41" t="n">
-        <v>29.90667724609375</v>
+        <v>31.54684066772461</v>
       </c>
       <c r="J41" t="n">
-        <v>49.07316207885742</v>
+        <v>49.8283576965332</v>
       </c>
       <c r="K41" t="n">
-        <v>47.14126586914062</v>
+        <v>46.98471450805664</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>101.2599105834961</v>
+        <v>102.1557235717773</v>
       </c>
       <c r="I42" t="n">
-        <v>30.63177680969238</v>
+        <v>29.69206619262695</v>
       </c>
       <c r="J42" t="n">
-        <v>71.79898071289062</v>
+        <v>72.07582092285156</v>
       </c>
       <c r="K42" t="n">
-        <v>49.85709762573242</v>
+        <v>46.43687057495117</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>104.5649032592773</v>
+        <v>103.1069412231445</v>
       </c>
       <c r="I43" t="n">
-        <v>28.64363098144531</v>
+        <v>30.9298095703125</v>
       </c>
       <c r="J43" t="n">
-        <v>95.43061828613281</v>
+        <v>95.54848480224609</v>
       </c>
       <c r="K43" t="n">
-        <v>54.80455017089844</v>
+        <v>53.30318069458008</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>108.2320404052734</v>
+        <v>107.1900177001953</v>
       </c>
       <c r="I44" t="n">
-        <v>29.01599502563477</v>
+        <v>30.02545166015625</v>
       </c>
       <c r="J44" t="n">
-        <v>136.3805236816406</v>
+        <v>138.4610748291016</v>
       </c>
       <c r="K44" t="n">
-        <v>68.89582061767578</v>
+        <v>70.660888671875</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>112.7704696655273</v>
+        <v>113.397216796875</v>
       </c>
       <c r="I45" t="n">
-        <v>30.28354454040527</v>
+        <v>29.10511589050293</v>
       </c>
       <c r="J45" t="n">
-        <v>190.9876098632812</v>
+        <v>189.9484558105469</v>
       </c>
       <c r="K45" t="n">
-        <v>90.23701477050781</v>
+        <v>88.6556396484375</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>120.1632690429688</v>
+        <v>118.0913009643555</v>
       </c>
       <c r="I46" t="n">
-        <v>28.17579078674316</v>
+        <v>27.82317733764648</v>
       </c>
       <c r="J46" t="n">
-        <v>295.8244018554688</v>
+        <v>293.5772705078125</v>
       </c>
       <c r="K46" t="n">
-        <v>125.2945327758789</v>
+        <v>122.1522674560547</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>126.2430725097656</v>
+        <v>125.3122406005859</v>
       </c>
       <c r="I47" t="n">
-        <v>28.20105743408203</v>
+        <v>27.25060844421387</v>
       </c>
       <c r="J47" t="n">
-        <v>381.5526733398438</v>
+        <v>376.287841796875</v>
       </c>
       <c r="K47" t="n">
-        <v>141.0342254638672</v>
+        <v>150.6942138671875</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>137.7687683105469</v>
+        <v>138.3182373046875</v>
       </c>
       <c r="I48" t="n">
-        <v>30.05790328979492</v>
+        <v>29.0737361907959</v>
       </c>
       <c r="J48" t="n">
-        <v>473.6041564941406</v>
+        <v>479.2560424804688</v>
       </c>
       <c r="K48" t="n">
-        <v>186.4915313720703</v>
+        <v>188.8998413085938</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>191.9148559570312</v>
+        <v>189.0405883789062</v>
       </c>
       <c r="I49" t="n">
-        <v>59.77449798583984</v>
+        <v>55.662353515625</v>
       </c>
       <c r="J49" t="n">
-        <v>507.856201171875</v>
+        <v>506.0924072265625</v>
       </c>
       <c r="K49" t="n">
-        <v>205.5247802734375</v>
+        <v>201.62841796875</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>101.4414367675781</v>
+        <v>100.1670913696289</v>
       </c>
       <c r="I50" t="n">
-        <v>30.26484870910645</v>
+        <v>29.8044548034668</v>
       </c>
       <c r="J50" t="n">
-        <v>47.69018173217773</v>
+        <v>47.77281951904297</v>
       </c>
       <c r="K50" t="n">
-        <v>44.38843536376953</v>
+        <v>44.31307983398438</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>103.324462890625</v>
+        <v>101.7076034545898</v>
       </c>
       <c r="I51" t="n">
-        <v>31.27851486206055</v>
+        <v>30.1033992767334</v>
       </c>
       <c r="J51" t="n">
-        <v>61.36287689208984</v>
+        <v>61.5771369934082</v>
       </c>
       <c r="K51" t="n">
-        <v>44.45831298828125</v>
+        <v>46.216552734375</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>104.8844680786133</v>
+        <v>105.6930770874023</v>
       </c>
       <c r="I52" t="n">
-        <v>30.10419654846191</v>
+        <v>29.9249210357666</v>
       </c>
       <c r="J52" t="n">
-        <v>72.96288299560547</v>
+        <v>73.72283935546875</v>
       </c>
       <c r="K52" t="n">
-        <v>46.18621063232422</v>
+        <v>43.8228645324707</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>108.3082962036133</v>
+        <v>107.0517044067383</v>
       </c>
       <c r="I53" t="n">
-        <v>29.60061645507812</v>
+        <v>29.75615310668945</v>
       </c>
       <c r="J53" t="n">
-        <v>87.93914031982422</v>
+        <v>85.33840179443359</v>
       </c>
       <c r="K53" t="n">
-        <v>52.76554107666016</v>
+        <v>46.94189071655273</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>112.8962249755859</v>
+        <v>112.4478378295898</v>
       </c>
       <c r="I54" t="n">
-        <v>29.88628768920898</v>
+        <v>29.22088050842285</v>
       </c>
       <c r="J54" t="n">
-        <v>105.6441040039062</v>
+        <v>106.6278610229492</v>
       </c>
       <c r="K54" t="n">
-        <v>54.21399307250977</v>
+        <v>57.22969436645508</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>117.9103775024414</v>
+        <v>116.4080581665039</v>
       </c>
       <c r="I55" t="n">
-        <v>28.80301856994629</v>
+        <v>28.80461502075195</v>
       </c>
       <c r="J55" t="n">
-        <v>130.3159942626953</v>
+        <v>126.9615859985352</v>
       </c>
       <c r="K55" t="n">
-        <v>61.65507888793945</v>
+        <v>58.99269866943359</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>124.7754440307617</v>
+        <v>124.0319671630859</v>
       </c>
       <c r="I56" t="n">
-        <v>27.61570167541504</v>
+        <v>27.8261775970459</v>
       </c>
       <c r="J56" t="n">
-        <v>174.1962890625</v>
+        <v>179.9199371337891</v>
       </c>
       <c r="K56" t="n">
-        <v>76.14962005615234</v>
+        <v>78.03119659423828</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>135.265625</v>
+        <v>136.3693084716797</v>
       </c>
       <c r="I57" t="n">
-        <v>28.86658477783203</v>
+        <v>28.9851016998291</v>
       </c>
       <c r="J57" t="n">
-        <v>290.8433532714844</v>
+        <v>294.7828063964844</v>
       </c>
       <c r="K57" t="n">
-        <v>133.3508758544922</v>
+        <v>127.0542526245117</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>184.500732421875</v>
+        <v>184.2159881591797</v>
       </c>
       <c r="I58" t="n">
-        <v>55.31782531738281</v>
+        <v>54.57055282592773</v>
       </c>
       <c r="J58" t="n">
-        <v>373.3320007324219</v>
+        <v>378.3944396972656</v>
       </c>
       <c r="K58" t="n">
-        <v>176.2330627441406</v>
+        <v>181.5633697509766</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>104.7430191040039</v>
+        <v>105.6816558837891</v>
       </c>
       <c r="I59" t="n">
-        <v>30.91598701477051</v>
+        <v>29.84286308288574</v>
       </c>
       <c r="J59" t="n">
-        <v>44.89031982421875</v>
+        <v>47.55450057983398</v>
       </c>
       <c r="K59" t="n">
-        <v>45.94210052490234</v>
+        <v>47.62997817993164</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>105.8831100463867</v>
+        <v>106.371696472168</v>
       </c>
       <c r="I60" t="n">
-        <v>29.51547813415527</v>
+        <v>29.68117523193359</v>
       </c>
       <c r="J60" t="n">
-        <v>48.9559211730957</v>
+        <v>49.11174011230469</v>
       </c>
       <c r="K60" t="n">
-        <v>48.38554763793945</v>
+        <v>46.88022994995117</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>109.5304718017578</v>
+        <v>108.5951080322266</v>
       </c>
       <c r="I61" t="n">
-        <v>31.21015357971191</v>
+        <v>27.42289924621582</v>
       </c>
       <c r="J61" t="n">
-        <v>53.62157440185547</v>
+        <v>54.42110824584961</v>
       </c>
       <c r="K61" t="n">
-        <v>50.32479095458984</v>
+        <v>52.372314453125</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>113.1226806640625</v>
+        <v>111.9390640258789</v>
       </c>
       <c r="I62" t="n">
-        <v>28.83783531188965</v>
+        <v>29.83401870727539</v>
       </c>
       <c r="J62" t="n">
-        <v>58.28656768798828</v>
+        <v>59.05362701416016</v>
       </c>
       <c r="K62" t="n">
-        <v>54.88595581054688</v>
+        <v>52.6988410949707</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>117.8699645996094</v>
+        <v>119.6613540649414</v>
       </c>
       <c r="I63" t="n">
-        <v>29.04528999328613</v>
+        <v>28.17782402038574</v>
       </c>
       <c r="J63" t="n">
-        <v>66.72260284423828</v>
+        <v>67.57199096679688</v>
       </c>
       <c r="K63" t="n">
-        <v>60.38225936889648</v>
+        <v>59.99479675292969</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>123.4091033935547</v>
+        <v>123.7004318237305</v>
       </c>
       <c r="I64" t="n">
-        <v>27.76322174072266</v>
+        <v>27.94350433349609</v>
       </c>
       <c r="J64" t="n">
-        <v>98.51547241210938</v>
+        <v>100.476676940918</v>
       </c>
       <c r="K64" t="n">
-        <v>62.34376907348633</v>
+        <v>65.92555999755859</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>134.1296234130859</v>
+        <v>133.5993499755859</v>
       </c>
       <c r="I65" t="n">
-        <v>30.06821060180664</v>
+        <v>30.38310623168945</v>
       </c>
       <c r="J65" t="n">
-        <v>139.1532745361328</v>
+        <v>138.4290313720703</v>
       </c>
       <c r="K65" t="n">
-        <v>78.87149810791016</v>
+        <v>82.20576477050781</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>108.9240112304688</v>
+        <v>109.0150833129883</v>
       </c>
       <c r="I66" t="n">
-        <v>29.67843437194824</v>
+        <v>30.1756763458252</v>
       </c>
       <c r="J66" t="n">
-        <v>1.148530840873718</v>
+        <v>3.915943145751953</v>
       </c>
       <c r="K66" t="n">
-        <v>63.78940963745117</v>
+        <v>62.69380569458008</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>111.1825942993164</v>
+        <v>111.4957809448242</v>
       </c>
       <c r="I67" t="n">
-        <v>29.67379570007324</v>
+        <v>29.86787986755371</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.8007735013961792</v>
+        <v>-0.5530754327774048</v>
       </c>
       <c r="K67" t="n">
-        <v>65.6300048828125</v>
+        <v>68.19978332519531</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>113.4171447753906</v>
+        <v>114.1194000244141</v>
       </c>
       <c r="I68" t="n">
-        <v>29.88855171203613</v>
+        <v>29.82294273376465</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.595655083656311</v>
+        <v>1.34291660785675</v>
       </c>
       <c r="K68" t="n">
-        <v>67.80263519287109</v>
+        <v>65.54985046386719</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>117.3622283935547</v>
+        <v>118.4513397216797</v>
       </c>
       <c r="I69" t="n">
-        <v>29.31699752807617</v>
+        <v>29.90876007080078</v>
       </c>
       <c r="J69" t="n">
-        <v>11.63108730316162</v>
+        <v>7.7012939453125</v>
       </c>
       <c r="K69" t="n">
-        <v>69.30110931396484</v>
+        <v>72.2822265625</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>124.0541534423828</v>
+        <v>124.1131896972656</v>
       </c>
       <c r="I70" t="n">
-        <v>28.36834335327148</v>
+        <v>28.7843074798584</v>
       </c>
       <c r="J70" t="n">
-        <v>40.751220703125</v>
+        <v>42.95573425292969</v>
       </c>
       <c r="K70" t="n">
-        <v>72.18792724609375</v>
+        <v>72.39462280273438</v>
       </c>
     </row>
   </sheetData>
